--- a/江西/导出模板/合同分析结果.xlsx
+++ b/江西/导出模板/合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA49E8A2-0C80-4D39-9D8B-04AC4E4516DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD12C47-EF81-42C2-84B4-DE0936C2CF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,22 +588,22 @@
         <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>909.15293200000008</v>
+        <v>1189.2306207999998</v>
       </c>
       <c r="C2" s="2">
-        <v>957.1482337499998</v>
+        <v>1183.0654796075</v>
       </c>
       <c r="D2" s="2">
-        <v>-47.995301749999818</v>
+        <v>6.1651411924997346</v>
       </c>
       <c r="E2" s="2">
-        <v>20977.25</v>
+        <v>26190.499999999996</v>
       </c>
       <c r="F2" s="2">
-        <v>433.39948372641794</v>
+        <v>454.06946060594493</v>
       </c>
       <c r="G2" s="2">
-        <v>456.27917565457813</v>
+        <v>451.7154997451367</v>
       </c>
     </row>
   </sheetData>
@@ -726,76 +726,76 @@
         <v>34</v>
       </c>
       <c r="E2" s="2">
-        <v>171566.14499999999</v>
+        <v>197992.44099999999</v>
       </c>
       <c r="F2" s="2">
-        <v>197842.61499999999</v>
+        <v>307218.03999999998</v>
       </c>
       <c r="G2" s="2">
-        <v>231601.69999999998</v>
+        <v>340743.81999999995</v>
       </c>
       <c r="H2" s="2">
-        <v>163828.26</v>
+        <v>225062.60699999999</v>
       </c>
       <c r="I2" s="2">
-        <v>286510.72500000003</v>
+        <v>271466.196</v>
       </c>
       <c r="J2" s="2">
-        <v>178418.63999999998</v>
+        <v>259829.45599999998</v>
       </c>
       <c r="K2" s="2">
-        <v>93802.5</v>
+        <v>287346.37800000003</v>
       </c>
       <c r="L2" s="2">
-        <v>149485.96000000002</v>
+        <v>253826.59599999999</v>
       </c>
       <c r="M2" s="2">
-        <v>315754.88</v>
+        <v>232331.96099999998</v>
       </c>
       <c r="N2" s="2">
-        <v>141351.63999999998</v>
+        <v>242420.492</v>
       </c>
       <c r="O2" s="2">
-        <v>129803.625</v>
+        <v>307093.28000000003</v>
       </c>
       <c r="P2" s="2">
-        <v>168571.39500000002</v>
+        <v>224557.43</v>
       </c>
       <c r="Q2" s="2">
-        <v>279611.09000000003</v>
+        <v>306485.125</v>
       </c>
       <c r="R2" s="2">
-        <v>91450.595000000001</v>
+        <v>190246.03700000001</v>
       </c>
       <c r="S2" s="2">
-        <v>199130.11</v>
+        <v>256867.01700000002</v>
       </c>
       <c r="T2" s="2">
-        <v>96546.655000000013</v>
+        <v>209636.9</v>
       </c>
       <c r="U2" s="2">
-        <v>208944.755</v>
+        <v>238934.755</v>
       </c>
       <c r="V2" s="2">
-        <v>75699.165000000023</v>
+        <v>231922.57799999998</v>
       </c>
       <c r="W2" s="2">
-        <v>326191.49500000005</v>
+        <v>287045.61499999999</v>
       </c>
       <c r="X2" s="2">
-        <v>168713.09000000003</v>
+        <v>245038.63900000002</v>
       </c>
       <c r="Y2" s="2">
-        <v>129643.51</v>
+        <v>213234.13600000003</v>
       </c>
       <c r="Z2" s="2">
-        <v>175938.08500000002</v>
+        <v>262702.10100000002</v>
       </c>
       <c r="AA2" s="2">
-        <v>128991.99500000001</v>
+        <v>199922.14800000002</v>
       </c>
       <c r="AB2" s="2">
-        <v>155768.12999999998</v>
+        <v>291446.39899999998</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,76 +808,76 @@
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>500.04705625182157</v>
+        <v>413.42306696456535</v>
       </c>
       <c r="F3" s="2">
-        <v>498.53248078619123</v>
+        <v>534.18076227569895</v>
       </c>
       <c r="G3" s="2">
-        <v>474.73957158962793</v>
+        <v>527.66324950445971</v>
       </c>
       <c r="H3" s="2">
-        <v>504.70813308687616</v>
+        <v>451.8059320672902</v>
       </c>
       <c r="I3" s="2">
-        <v>517.49431048496353</v>
+        <v>484.89960703058011</v>
       </c>
       <c r="J3" s="2">
-        <v>441.24802769877573</v>
+        <v>499.62399000096144</v>
       </c>
       <c r="K3" s="2">
-        <v>532.36379114642443</v>
+        <v>521.35784813571615</v>
       </c>
       <c r="L3" s="2">
-        <v>474.7846911227569</v>
+        <v>541.34660467497008</v>
       </c>
       <c r="M3" s="2">
-        <v>732.10034778576403</v>
+        <v>433.13191834451902</v>
       </c>
       <c r="N3" s="2">
-        <v>572.04225010117352</v>
+        <v>519.94786376115303</v>
       </c>
       <c r="O3" s="2">
-        <v>235.0237642585551</v>
+        <v>530.53223688756827</v>
       </c>
       <c r="P3" s="2">
-        <v>656.30288105898387</v>
+        <v>514.70942972403054</v>
       </c>
       <c r="Q3" s="2">
-        <v>593.90630841121504</v>
+        <v>507.3585038405509</v>
       </c>
       <c r="R3" s="2">
-        <v>212.10853531253625</v>
+        <v>409.29850261397138</v>
       </c>
       <c r="S3" s="2">
-        <v>436.21053669222334</v>
+        <v>493.90854500355721</v>
       </c>
       <c r="T3" s="2">
-        <v>219.05083380601252</v>
+        <v>468.71372356123953</v>
       </c>
       <c r="U3" s="2">
-        <v>442.16433181673904</v>
+        <v>493.98324339969815</v>
       </c>
       <c r="V3" s="2">
-        <v>357.66201275691014</v>
+        <v>442.93000133687292</v>
       </c>
       <c r="W3" s="2">
-        <v>540.18629626562893</v>
+        <v>508.98222391658976</v>
       </c>
       <c r="X3" s="2">
-        <v>470.54271370799052</v>
+        <v>578.63096013979418</v>
       </c>
       <c r="Y3" s="2">
-        <v>279.64518981880929</v>
+        <v>432.49728414092453</v>
       </c>
       <c r="Z3" s="2">
-        <v>616.56942351498162</v>
+        <v>555.21948853429149</v>
       </c>
       <c r="AA3" s="2">
-        <v>432.42371773382513</v>
+        <v>393.86541894048349</v>
       </c>
       <c r="AB3" s="2">
-        <v>314.71488029093842</v>
+        <v>473.9736526264432</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -890,76 +890,76 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>343.1</v>
+        <v>478.90999999999997</v>
       </c>
       <c r="F4" s="2">
-        <v>396.85</v>
+        <v>575.12</v>
       </c>
       <c r="G4" s="2">
-        <v>487.84999999999997</v>
+        <v>645.7600000000001</v>
       </c>
       <c r="H4" s="2">
-        <v>324.60000000000002</v>
+        <v>498.1400000000001</v>
       </c>
       <c r="I4" s="2">
-        <v>553.65</v>
+        <v>559.84</v>
       </c>
       <c r="J4" s="2">
-        <v>404.35</v>
+        <v>520.04999999999995</v>
       </c>
       <c r="K4" s="2">
-        <v>176.20000000000002</v>
+        <v>551.15000000000009</v>
       </c>
       <c r="L4" s="2">
-        <v>314.85000000000002</v>
+        <v>468.88000000000005</v>
       </c>
       <c r="M4" s="2">
-        <v>431.29999999999995</v>
+        <v>536.4</v>
       </c>
       <c r="N4" s="2">
-        <v>247.10000000000002</v>
+        <v>466.24</v>
       </c>
       <c r="O4" s="2">
-        <v>552.30000000000007</v>
+        <v>578.84</v>
       </c>
       <c r="P4" s="2">
-        <v>256.85000000000002</v>
+        <v>436.27999999999992</v>
       </c>
       <c r="Q4" s="2">
-        <v>470.79999999999995</v>
+        <v>604.08000000000004</v>
       </c>
       <c r="R4" s="2">
-        <v>431.15</v>
+        <v>464.80999999999995</v>
       </c>
       <c r="S4" s="2">
-        <v>456.50000000000006</v>
+        <v>520.07000000000005</v>
       </c>
       <c r="T4" s="2">
-        <v>440.75</v>
+        <v>447.26</v>
       </c>
       <c r="U4" s="2">
-        <v>472.54999999999995</v>
+        <v>483.69</v>
       </c>
       <c r="V4" s="2">
-        <v>211.64999999999998</v>
+        <v>523.6099999999999</v>
       </c>
       <c r="W4" s="2">
-        <v>603.85</v>
+        <v>563.96</v>
       </c>
       <c r="X4" s="2">
-        <v>358.55000000000007</v>
+        <v>423.47999999999996</v>
       </c>
       <c r="Y4" s="2">
-        <v>463.6</v>
+        <v>493.03000000000003</v>
       </c>
       <c r="Z4" s="2">
-        <v>285.35000000000002</v>
+        <v>473.15</v>
       </c>
       <c r="AA4" s="2">
-        <v>298.29999999999995</v>
+        <v>507.59</v>
       </c>
       <c r="AB4" s="2">
-        <v>494.95000000000005</v>
+        <v>614.90000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -972,76 +972,76 @@
         <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>219962.39999999997</v>
+        <v>208137.57600000003</v>
       </c>
       <c r="F5" s="2">
-        <v>116768.54</v>
+        <v>228643.70299999998</v>
       </c>
       <c r="G5" s="2">
-        <v>212249.83500000002</v>
+        <v>262820.48899999994</v>
       </c>
       <c r="H5" s="2">
-        <v>112132.35</v>
+        <v>262999.51399999997</v>
       </c>
       <c r="I5" s="2">
-        <v>211416.14499999996</v>
+        <v>287325.21100000001</v>
       </c>
       <c r="J5" s="2">
-        <v>166912.13499999998</v>
+        <v>235581.99399999998</v>
       </c>
       <c r="K5" s="2">
-        <v>126832.81999999999</v>
+        <v>208068.88399999999</v>
       </c>
       <c r="L5" s="2">
-        <v>127091.89499999999</v>
+        <v>165640.867</v>
       </c>
       <c r="M5" s="2">
-        <v>124536.905</v>
+        <v>290892.26100000006</v>
       </c>
       <c r="N5" s="2">
-        <v>238861.91999999998</v>
+        <v>241824.21699999998</v>
       </c>
       <c r="O5" s="2">
-        <v>189199.11</v>
+        <v>242968.36500000002</v>
       </c>
       <c r="P5" s="2">
-        <v>107466.065</v>
+        <v>276167.50299999997</v>
       </c>
       <c r="Q5" s="2">
-        <v>229336.63</v>
+        <v>265212.79200000002</v>
       </c>
       <c r="R5" s="2">
-        <v>262401.22500000003</v>
+        <v>170184.397</v>
       </c>
       <c r="S5" s="2">
-        <v>236172.59999999998</v>
+        <v>270464.47200000001</v>
       </c>
       <c r="T5" s="2">
-        <v>312856.62499999994</v>
+        <v>297527.179</v>
       </c>
       <c r="U5" s="2">
-        <v>254712.88</v>
+        <v>285026.88399999996</v>
       </c>
       <c r="V5" s="2">
-        <v>277714.44999999995</v>
+        <v>213030.535</v>
       </c>
       <c r="W5" s="2">
-        <v>276727.99999999994</v>
+        <v>290886.32500000001</v>
       </c>
       <c r="X5" s="2">
-        <v>204207.77000000002</v>
+        <v>265575.88</v>
       </c>
       <c r="Y5" s="2">
-        <v>87981.59</v>
+        <v>204008.94099999999</v>
       </c>
       <c r="Z5" s="2">
-        <v>176241.91000000003</v>
+        <v>206433.58799999999</v>
       </c>
       <c r="AA5" s="2">
-        <v>219329.22999999995</v>
+        <v>227875.51800000001</v>
       </c>
       <c r="AB5" s="2">
-        <v>335249.52999999991</v>
+        <v>201638.96600000001</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1054,76 +1054,76 @@
         <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>448.03421937060796</v>
+        <v>337.90761737775182</v>
       </c>
       <c r="F6" s="2">
-        <v>268.8351329572925</v>
+        <v>440.13956841456837</v>
       </c>
       <c r="G6" s="2">
-        <v>361.79976987982616</v>
+        <v>430.1199414113641</v>
       </c>
       <c r="H6" s="2">
-        <v>249.09996667777409</v>
+        <v>445.97353659363756</v>
       </c>
       <c r="I6" s="2">
-        <v>443.31336758230231</v>
+        <v>507.00571897443137</v>
       </c>
       <c r="J6" s="2">
-        <v>314.63173421300655</v>
+        <v>430.49118120020461</v>
       </c>
       <c r="K6" s="2">
-        <v>336.07000529941701</v>
+        <v>360.80475133522924</v>
       </c>
       <c r="L6" s="2">
-        <v>263.3755983835872</v>
+        <v>335.54313177352378</v>
       </c>
       <c r="M6" s="2">
-        <v>375.84700467783313</v>
+        <v>456.05835475981451</v>
       </c>
       <c r="N6" s="2">
-        <v>482.79316826680144</v>
+        <v>451.08884142587993</v>
       </c>
       <c r="O6" s="2">
-        <v>326.34602846054332</v>
+        <v>397.89133532031968</v>
       </c>
       <c r="P6" s="2">
-        <v>507.27432145385882</v>
+        <v>458.99398849886973</v>
       </c>
       <c r="Q6" s="2">
-        <v>459.08643779401467</v>
+        <v>473.42519100321323</v>
       </c>
       <c r="R6" s="2">
-        <v>598.47468354430384</v>
+        <v>342.60256270886174</v>
       </c>
       <c r="S6" s="2">
-        <v>389.40247320692492</v>
+        <v>457.51483862236955</v>
       </c>
       <c r="T6" s="2">
-        <v>705.34691692030185</v>
+        <v>537.91683209488178</v>
       </c>
       <c r="U6" s="2">
-        <v>550.1358099352052</v>
+        <v>515.72707764126858</v>
       </c>
       <c r="V6" s="2">
-        <v>687.15687244834828</v>
+        <v>354.14781473908209</v>
       </c>
       <c r="W6" s="2">
-        <v>519.96993611424261</v>
+        <v>483.27212540080745</v>
       </c>
       <c r="X6" s="2">
-        <v>278.06068899782139</v>
+        <v>395.82657167555965</v>
       </c>
       <c r="Y6" s="2">
-        <v>332.57074277074281</v>
+        <v>457.60383338567129</v>
       </c>
       <c r="Z6" s="2">
-        <v>316.72550992901432</v>
+        <v>342.95851275917062</v>
       </c>
       <c r="AA6" s="2">
-        <v>403.25285898143034</v>
+        <v>393.74419946780938</v>
       </c>
       <c r="AB6" s="2">
-        <v>591.89535663841798</v>
+        <v>339.57959211168935</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,76 +1136,76 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>490.95</v>
+        <v>615.96</v>
       </c>
       <c r="F7" s="2">
-        <v>434.34999999999997</v>
+        <v>519.48</v>
       </c>
       <c r="G7" s="2">
-        <v>586.65</v>
+        <v>611.04000000000008</v>
       </c>
       <c r="H7" s="2">
-        <v>450.15</v>
+        <v>589.72</v>
       </c>
       <c r="I7" s="2">
-        <v>476.9</v>
+        <v>566.71</v>
       </c>
       <c r="J7" s="2">
-        <v>530.5</v>
+        <v>547.24</v>
       </c>
       <c r="K7" s="2">
-        <v>377.40000000000003</v>
+        <v>576.67999999999995</v>
       </c>
       <c r="L7" s="2">
-        <v>482.54999999999995</v>
+        <v>493.65</v>
       </c>
       <c r="M7" s="2">
-        <v>331.34999999999997</v>
+        <v>637.83999999999992</v>
       </c>
       <c r="N7" s="2">
-        <v>494.74999999999994</v>
+        <v>536.09</v>
       </c>
       <c r="O7" s="2">
-        <v>579.75</v>
+        <v>610.64</v>
       </c>
       <c r="P7" s="2">
-        <v>211.85000000000002</v>
+        <v>601.68000000000006</v>
       </c>
       <c r="Q7" s="2">
-        <v>499.54999999999995</v>
+        <v>560.19999999999993</v>
       </c>
       <c r="R7" s="2">
-        <v>438.45</v>
+        <v>496.74</v>
       </c>
       <c r="S7" s="2">
-        <v>606.5</v>
+        <v>591.16000000000008</v>
       </c>
       <c r="T7" s="2">
-        <v>443.55000000000007</v>
+        <v>553.1099999999999</v>
       </c>
       <c r="U7" s="2">
-        <v>463</v>
+        <v>552.67000000000007</v>
       </c>
       <c r="V7" s="2">
-        <v>404.15</v>
+        <v>601.52999999999986</v>
       </c>
       <c r="W7" s="2">
-        <v>532.20000000000005</v>
+        <v>601.91</v>
       </c>
       <c r="X7" s="2">
-        <v>734.4</v>
+        <v>670.94</v>
       </c>
       <c r="Y7" s="2">
-        <v>264.54999999999995</v>
+        <v>445.82000000000005</v>
       </c>
       <c r="Z7" s="2">
-        <v>556.45000000000005</v>
+        <v>601.92000000000007</v>
       </c>
       <c r="AA7" s="2">
-        <v>543.9</v>
+        <v>578.74</v>
       </c>
       <c r="AB7" s="2">
-        <v>566.4</v>
+        <v>593.79</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1384,76 +1384,76 @@
         <v>36</v>
       </c>
       <c r="E2" s="2">
-        <v>53093.714999999982</v>
+        <v>32624.817999999999</v>
       </c>
       <c r="F2" s="2">
-        <v>78093.127499999988</v>
+        <v>133675.57999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>92686.412500000006</v>
+        <v>156863.65999999992</v>
       </c>
       <c r="H2" s="2">
-        <v>81785.61</v>
+        <v>99157.721999999965</v>
       </c>
       <c r="I2" s="2">
-        <v>141316.01250000004</v>
+        <v>124648.15599999999</v>
       </c>
       <c r="J2" s="2">
-        <v>56001.677499999976</v>
+        <v>102384.31849999999</v>
       </c>
       <c r="K2" s="2">
-        <v>23137.490000000005</v>
+        <v>66307.670500000007</v>
       </c>
       <c r="L2" s="2">
-        <v>-4554.4024999999965</v>
+        <v>24427.055999999953</v>
       </c>
       <c r="M2" s="2">
-        <v>87705.005000000034</v>
+        <v>-51289.539000000019</v>
       </c>
       <c r="N2" s="2">
-        <v>15515.964999999967</v>
+        <v>4987.7719999999972</v>
       </c>
       <c r="O2" s="2">
-        <v>-117820.08000000005</v>
+        <v>47570.366000000009</v>
       </c>
       <c r="P2" s="2">
-        <v>66036.875</v>
+        <v>50394.453999999998</v>
       </c>
       <c r="Q2" s="2">
-        <v>141195.89000000004</v>
+        <v>128885.60499999998</v>
       </c>
       <c r="R2" s="2">
-        <v>-44361.654999999999</v>
+        <v>43830.887000000017</v>
       </c>
       <c r="S2" s="2">
-        <v>27417.63499999998</v>
+        <v>61242.686500000011</v>
       </c>
       <c r="T2" s="2">
-        <v>-114043.69499999999</v>
+        <v>-4063.9280000000144</v>
       </c>
       <c r="U2" s="2">
-        <v>-67733.26999999996</v>
+        <v>-44265.739999999991</v>
       </c>
       <c r="V2" s="2">
-        <v>-65683.03499999996</v>
+        <v>-117848.90199999994</v>
       </c>
       <c r="W2" s="2">
-        <v>-130470.06749999995</v>
+        <v>-139449.13500000001</v>
       </c>
       <c r="X2" s="2">
-        <v>-100020.13500000001</v>
+        <v>-72359.620999999926</v>
       </c>
       <c r="Y2" s="2">
-        <v>-214347.69</v>
+        <v>-152594.12399999998</v>
       </c>
       <c r="Z2" s="2">
-        <v>-15175.077499999985</v>
+        <v>-54190.111499999941</v>
       </c>
       <c r="AA2" s="2">
-        <v>-36675.621749999947</v>
+        <v>-81979.379274999927</v>
       </c>
       <c r="AB2" s="2">
-        <v>-56639.662500000035</v>
+        <v>27562.063999999955</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1466,76 +1466,76 @@
         <v>37</v>
       </c>
       <c r="E3" s="2">
-        <v>118472.43000000001</v>
+        <v>165367.62299999999</v>
       </c>
       <c r="F3" s="2">
-        <v>119749.4875</v>
+        <v>173542.46</v>
       </c>
       <c r="G3" s="2">
-        <v>138915.28749999998</v>
+        <v>183880.16000000003</v>
       </c>
       <c r="H3" s="2">
-        <v>82042.650000000009</v>
+        <v>125904.88500000002</v>
       </c>
       <c r="I3" s="2">
-        <v>145194.71249999999</v>
+        <v>146818.04</v>
       </c>
       <c r="J3" s="2">
-        <v>122416.96250000001</v>
+        <v>157445.13749999998</v>
       </c>
       <c r="K3" s="2">
-        <v>70665.009999999995</v>
+        <v>221038.70750000002</v>
       </c>
       <c r="L3" s="2">
-        <v>154040.36250000002</v>
+        <v>229399.54000000004</v>
       </c>
       <c r="M3" s="2">
-        <v>228049.87499999997</v>
+        <v>283621.5</v>
       </c>
       <c r="N3" s="2">
-        <v>125835.67500000002</v>
+        <v>237432.72</v>
       </c>
       <c r="O3" s="2">
-        <v>247623.70500000005</v>
+        <v>259522.91400000002</v>
       </c>
       <c r="P3" s="2">
-        <v>102534.52000000002</v>
+        <v>174162.976</v>
       </c>
       <c r="Q3" s="2">
-        <v>138415.19999999998</v>
+        <v>177599.52000000002</v>
       </c>
       <c r="R3" s="2">
-        <v>135812.25</v>
+        <v>146415.15</v>
       </c>
       <c r="S3" s="2">
-        <v>171712.47500000001</v>
+        <v>195624.33050000001</v>
       </c>
       <c r="T3" s="2">
-        <v>210590.35</v>
+        <v>213700.82800000001</v>
       </c>
       <c r="U3" s="2">
-        <v>276678.02499999997</v>
+        <v>283200.495</v>
       </c>
       <c r="V3" s="2">
-        <v>141382.19999999998</v>
+        <v>349771.47999999992</v>
       </c>
       <c r="W3" s="2">
-        <v>456661.5625</v>
+        <v>426494.75</v>
       </c>
       <c r="X3" s="2">
-        <v>268733.22500000003</v>
+        <v>317398.25999999995</v>
       </c>
       <c r="Y3" s="2">
-        <v>343991.2</v>
+        <v>365828.26</v>
       </c>
       <c r="Z3" s="2">
-        <v>191113.16250000001</v>
+        <v>316892.21249999997</v>
       </c>
       <c r="AA3" s="2">
-        <v>165667.61674999996</v>
+        <v>281901.52727499994</v>
       </c>
       <c r="AB3" s="2">
-        <v>212407.79250000001</v>
+        <v>263884.33500000002</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,76 +1548,76 @@
         <v>36</v>
       </c>
       <c r="E4" s="2">
-        <v>-29974.108125000057</v>
+        <v>-105439.96050000002</v>
       </c>
       <c r="F4" s="2">
-        <v>-177804.37237499998</v>
+        <v>-123663.73690000002</v>
       </c>
       <c r="G4" s="2">
-        <v>-126222.28237499995</v>
+        <v>-89723.621800000081</v>
       </c>
       <c r="H4" s="2">
-        <v>31442.962500000009</v>
+        <v>157292.20399999997</v>
       </c>
       <c r="I4" s="2">
-        <v>76027.811749999935</v>
+        <v>126440.49232499997</v>
       </c>
       <c r="J4" s="2">
-        <v>-104902.80250000002</v>
+        <v>-44810.101000000053</v>
       </c>
       <c r="K4" s="2">
-        <v>-81341.963500000027</v>
+        <v>-110029.24569999994</v>
       </c>
       <c r="L4" s="2">
-        <v>-123408.25462500003</v>
+        <v>-90621.486875000031</v>
       </c>
       <c r="M4" s="2">
-        <v>-12814.296999999991</v>
+        <v>26494.82420000009</v>
       </c>
       <c r="N4" s="2">
-        <v>-20555.294999999955</v>
+        <v>-39269.213599999988</v>
       </c>
       <c r="O4" s="2">
-        <v>-37678.805625000008</v>
+        <v>4002.0340000000433</v>
       </c>
       <c r="P4" s="2">
-        <v>35705.584875</v>
+        <v>72358.932399999961</v>
       </c>
       <c r="Q4" s="2">
-        <v>-89879.566624999919</v>
+        <v>-92759.209499999881</v>
       </c>
       <c r="R4" s="2">
-        <v>42958.096125000011</v>
+        <v>-78432.731150000036</v>
       </c>
       <c r="S4" s="2">
-        <v>-171559.15500000003</v>
+        <v>-126954.66120000003</v>
       </c>
       <c r="T4" s="2">
-        <v>168923.54112499993</v>
+        <v>118041.60122500005</v>
       </c>
       <c r="U4" s="2">
-        <v>86956.40499999997</v>
+        <v>84780.72624999992</v>
       </c>
       <c r="V4" s="2">
-        <v>74480.549874999968</v>
+        <v>-89459.352274999925</v>
       </c>
       <c r="W4" s="2">
-        <v>125207.99899999992</v>
+        <v>119519.53845000002</v>
       </c>
       <c r="X4" s="2">
-        <v>9969.9860000000626</v>
+        <v>88122.314100000018</v>
       </c>
       <c r="Y4" s="2">
-        <v>17232.983500000017</v>
+        <v>84783.2984</v>
       </c>
       <c r="Z4" s="2">
-        <v>-102266.87949999998</v>
+        <v>-94833.391200000071</v>
       </c>
       <c r="AA4" s="2">
-        <v>-4614.7962500000431</v>
+        <v>-10413.442749999987</v>
       </c>
       <c r="AB4" s="2">
-        <v>37702.6179999999</v>
+        <v>-110296.73469999997</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1630,76 +1630,76 @@
         <v>37</v>
       </c>
       <c r="E5" s="2">
-        <v>249936.50812500002</v>
+        <v>313577.53650000005</v>
       </c>
       <c r="F5" s="2">
-        <v>294572.91237499996</v>
+        <v>352307.4399</v>
       </c>
       <c r="G5" s="2">
-        <v>338472.11737499997</v>
+        <v>352544.11080000002</v>
       </c>
       <c r="H5" s="2">
-        <v>80689.387499999997</v>
+        <v>105707.31</v>
       </c>
       <c r="I5" s="2">
-        <v>135388.33325000003</v>
+        <v>160884.71867500004</v>
       </c>
       <c r="J5" s="2">
-        <v>271814.9375</v>
+        <v>280392.09500000003</v>
       </c>
       <c r="K5" s="2">
-        <v>208174.78350000002</v>
+        <v>318098.12969999993</v>
       </c>
       <c r="L5" s="2">
-        <v>250500.14962500002</v>
+        <v>256262.35387500003</v>
       </c>
       <c r="M5" s="2">
-        <v>137351.20199999999</v>
+        <v>264397.43679999997</v>
       </c>
       <c r="N5" s="2">
-        <v>259417.21499999994</v>
+        <v>281093.43059999996</v>
       </c>
       <c r="O5" s="2">
-        <v>226877.91562499999</v>
+        <v>238966.33099999998</v>
       </c>
       <c r="P5" s="2">
-        <v>71760.480125000002</v>
+        <v>203808.57060000001</v>
       </c>
       <c r="Q5" s="2">
-        <v>319216.19662499992</v>
+        <v>357972.0014999999</v>
       </c>
       <c r="R5" s="2">
-        <v>219443.12887500002</v>
+        <v>248617.12815000003</v>
       </c>
       <c r="S5" s="2">
-        <v>407731.755</v>
+        <v>397419.13320000004</v>
       </c>
       <c r="T5" s="2">
-        <v>143933.08387500001</v>
+        <v>179485.57777499995</v>
       </c>
       <c r="U5" s="2">
-        <v>167756.47500000003</v>
+        <v>200246.15775000004</v>
       </c>
       <c r="V5" s="2">
-        <v>203233.90012499999</v>
+        <v>302489.88727499993</v>
       </c>
       <c r="W5" s="2">
-        <v>151520.00100000002</v>
+        <v>171366.78654999999</v>
       </c>
       <c r="X5" s="2">
-        <v>194237.78399999996</v>
+        <v>177453.56589999999</v>
       </c>
       <c r="Y5" s="2">
-        <v>70748.60649999998</v>
+        <v>119225.64259999999</v>
       </c>
       <c r="Z5" s="2">
-        <v>278508.78950000001</v>
+        <v>301266.97920000006</v>
       </c>
       <c r="AA5" s="2">
-        <v>223944.02625</v>
+        <v>238288.96075</v>
       </c>
       <c r="AB5" s="2">
-        <v>297546.91200000001</v>
+        <v>311935.70069999999</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1829,76 +1829,76 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>343.1</v>
+        <v>478.90999999999997</v>
       </c>
       <c r="F2" s="2">
-        <v>396.85</v>
+        <v>575.12</v>
       </c>
       <c r="G2" s="2">
-        <v>487.84999999999997</v>
+        <v>645.7600000000001</v>
       </c>
       <c r="H2" s="2">
-        <v>324.60000000000002</v>
+        <v>498.1400000000001</v>
       </c>
       <c r="I2" s="2">
-        <v>553.65</v>
+        <v>559.84</v>
       </c>
       <c r="J2" s="2">
-        <v>404.35</v>
+        <v>520.04999999999995</v>
       </c>
       <c r="K2" s="2">
-        <v>176.20000000000002</v>
+        <v>551.15000000000009</v>
       </c>
       <c r="L2" s="2">
-        <v>314.85000000000002</v>
+        <v>468.88000000000005</v>
       </c>
       <c r="M2" s="2">
-        <v>431.29999999999995</v>
+        <v>536.4</v>
       </c>
       <c r="N2" s="2">
-        <v>247.10000000000002</v>
+        <v>466.24</v>
       </c>
       <c r="O2" s="2">
-        <v>552.30000000000007</v>
+        <v>578.84</v>
       </c>
       <c r="P2" s="2">
-        <v>256.85000000000002</v>
+        <v>436.27999999999992</v>
       </c>
       <c r="Q2" s="2">
-        <v>470.79999999999995</v>
+        <v>604.08000000000004</v>
       </c>
       <c r="R2" s="2">
-        <v>431.15</v>
+        <v>464.80999999999995</v>
       </c>
       <c r="S2" s="2">
-        <v>456.50000000000006</v>
+        <v>520.07000000000005</v>
       </c>
       <c r="T2" s="2">
-        <v>440.75</v>
+        <v>447.26</v>
       </c>
       <c r="U2" s="2">
-        <v>472.54999999999995</v>
+        <v>483.69</v>
       </c>
       <c r="V2" s="2">
-        <v>211.64999999999998</v>
+        <v>523.6099999999999</v>
       </c>
       <c r="W2" s="2">
-        <v>603.85</v>
+        <v>563.96</v>
       </c>
       <c r="X2" s="2">
-        <v>358.55000000000007</v>
+        <v>423.47999999999996</v>
       </c>
       <c r="Y2" s="2">
-        <v>463.6</v>
+        <v>493.03000000000003</v>
       </c>
       <c r="Z2" s="2">
-        <v>285.35000000000002</v>
+        <v>473.15</v>
       </c>
       <c r="AA2" s="2">
-        <v>298.29999999999995</v>
+        <v>507.59</v>
       </c>
       <c r="AB2" s="2">
-        <v>494.95000000000005</v>
+        <v>614.90000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1911,76 +1911,76 @@
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>500.04705625182157</v>
+        <v>413.42306696456535</v>
       </c>
       <c r="F3" s="2">
-        <v>498.53248078619123</v>
+        <v>534.18076227569895</v>
       </c>
       <c r="G3" s="2">
-        <v>474.73957158962793</v>
+        <v>527.66324950445971</v>
       </c>
       <c r="H3" s="2">
-        <v>504.70813308687616</v>
+        <v>451.8059320672902</v>
       </c>
       <c r="I3" s="2">
-        <v>517.49431048496353</v>
+        <v>484.89960703058011</v>
       </c>
       <c r="J3" s="2">
-        <v>441.24802769877573</v>
+        <v>499.62399000096144</v>
       </c>
       <c r="K3" s="2">
-        <v>532.36379114642443</v>
+        <v>521.35784813571615</v>
       </c>
       <c r="L3" s="2">
-        <v>474.7846911227569</v>
+        <v>541.34660467497008</v>
       </c>
       <c r="M3" s="2">
-        <v>732.10034778576403</v>
+        <v>433.13191834451902</v>
       </c>
       <c r="N3" s="2">
-        <v>572.04225010117352</v>
+        <v>519.94786376115303</v>
       </c>
       <c r="O3" s="2">
-        <v>235.0237642585551</v>
+        <v>530.53223688756827</v>
       </c>
       <c r="P3" s="2">
-        <v>656.30288105898387</v>
+        <v>514.70942972403054</v>
       </c>
       <c r="Q3" s="2">
-        <v>593.90630841121504</v>
+        <v>507.3585038405509</v>
       </c>
       <c r="R3" s="2">
-        <v>212.10853531253625</v>
+        <v>409.29850261397138</v>
       </c>
       <c r="S3" s="2">
-        <v>436.21053669222334</v>
+        <v>493.90854500355721</v>
       </c>
       <c r="T3" s="2">
-        <v>219.05083380601252</v>
+        <v>468.71372356123953</v>
       </c>
       <c r="U3" s="2">
-        <v>442.16433181673904</v>
+        <v>493.98324339969815</v>
       </c>
       <c r="V3" s="2">
-        <v>357.66201275691014</v>
+        <v>442.93000133687292</v>
       </c>
       <c r="W3" s="2">
-        <v>540.18629626562893</v>
+        <v>508.98222391658976</v>
       </c>
       <c r="X3" s="2">
-        <v>470.54271370799052</v>
+        <v>578.63096013979418</v>
       </c>
       <c r="Y3" s="2">
-        <v>279.64518981880929</v>
+        <v>432.49728414092453</v>
       </c>
       <c r="Z3" s="2">
-        <v>616.56942351498162</v>
+        <v>555.21948853429149</v>
       </c>
       <c r="AA3" s="2">
-        <v>432.42371773382513</v>
+        <v>393.86541894048349</v>
       </c>
       <c r="AB3" s="2">
-        <v>314.71488029093842</v>
+        <v>473.9736526264432</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,76 +2075,76 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>490.95</v>
+        <v>615.96</v>
       </c>
       <c r="F5" s="2">
-        <v>434.34999999999997</v>
+        <v>519.48</v>
       </c>
       <c r="G5" s="2">
-        <v>586.65</v>
+        <v>611.04000000000008</v>
       </c>
       <c r="H5" s="2">
-        <v>450.15</v>
+        <v>589.72</v>
       </c>
       <c r="I5" s="2">
-        <v>476.9</v>
+        <v>566.71</v>
       </c>
       <c r="J5" s="2">
-        <v>530.5</v>
+        <v>547.24</v>
       </c>
       <c r="K5" s="2">
-        <v>377.40000000000003</v>
+        <v>576.67999999999995</v>
       </c>
       <c r="L5" s="2">
-        <v>482.54999999999995</v>
+        <v>493.65</v>
       </c>
       <c r="M5" s="2">
-        <v>331.34999999999997</v>
+        <v>637.83999999999992</v>
       </c>
       <c r="N5" s="2">
-        <v>494.74999999999994</v>
+        <v>536.09</v>
       </c>
       <c r="O5" s="2">
-        <v>579.75</v>
+        <v>610.64</v>
       </c>
       <c r="P5" s="2">
-        <v>211.85000000000002</v>
+        <v>601.68000000000006</v>
       </c>
       <c r="Q5" s="2">
-        <v>499.54999999999995</v>
+        <v>560.19999999999993</v>
       </c>
       <c r="R5" s="2">
-        <v>438.45</v>
+        <v>496.74</v>
       </c>
       <c r="S5" s="2">
-        <v>606.5</v>
+        <v>591.16000000000008</v>
       </c>
       <c r="T5" s="2">
-        <v>443.55000000000007</v>
+        <v>553.1099999999999</v>
       </c>
       <c r="U5" s="2">
-        <v>463</v>
+        <v>552.67000000000007</v>
       </c>
       <c r="V5" s="2">
-        <v>404.15</v>
+        <v>601.52999999999986</v>
       </c>
       <c r="W5" s="2">
-        <v>532.20000000000005</v>
+        <v>601.91</v>
       </c>
       <c r="X5" s="2">
-        <v>734.4</v>
+        <v>670.94</v>
       </c>
       <c r="Y5" s="2">
-        <v>264.54999999999995</v>
+        <v>445.82000000000005</v>
       </c>
       <c r="Z5" s="2">
-        <v>556.45000000000005</v>
+        <v>601.92000000000007</v>
       </c>
       <c r="AA5" s="2">
-        <v>543.9</v>
+        <v>578.74</v>
       </c>
       <c r="AB5" s="2">
-        <v>566.4</v>
+        <v>593.79</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2157,76 +2157,76 @@
         <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>448.03421937060796</v>
+        <v>337.90761737775182</v>
       </c>
       <c r="F6" s="2">
-        <v>268.8351329572925</v>
+        <v>440.13956841456837</v>
       </c>
       <c r="G6" s="2">
-        <v>361.79976987982616</v>
+        <v>430.1199414113641</v>
       </c>
       <c r="H6" s="2">
-        <v>249.09996667777409</v>
+        <v>445.97353659363756</v>
       </c>
       <c r="I6" s="2">
-        <v>443.31336758230231</v>
+        <v>507.00571897443137</v>
       </c>
       <c r="J6" s="2">
-        <v>314.63173421300655</v>
+        <v>430.49118120020461</v>
       </c>
       <c r="K6" s="2">
-        <v>336.07000529941701</v>
+        <v>360.80475133522924</v>
       </c>
       <c r="L6" s="2">
-        <v>263.3755983835872</v>
+        <v>335.54313177352378</v>
       </c>
       <c r="M6" s="2">
-        <v>375.84700467783313</v>
+        <v>456.05835475981451</v>
       </c>
       <c r="N6" s="2">
-        <v>482.79316826680144</v>
+        <v>451.08884142587993</v>
       </c>
       <c r="O6" s="2">
-        <v>326.34602846054332</v>
+        <v>397.89133532031968</v>
       </c>
       <c r="P6" s="2">
-        <v>507.27432145385882</v>
+        <v>458.99398849886973</v>
       </c>
       <c r="Q6" s="2">
-        <v>459.08643779401467</v>
+        <v>473.42519100321323</v>
       </c>
       <c r="R6" s="2">
-        <v>598.47468354430384</v>
+        <v>342.60256270886174</v>
       </c>
       <c r="S6" s="2">
-        <v>389.40247320692492</v>
+        <v>457.51483862236955</v>
       </c>
       <c r="T6" s="2">
-        <v>705.34691692030185</v>
+        <v>537.91683209488178</v>
       </c>
       <c r="U6" s="2">
-        <v>550.1358099352052</v>
+        <v>515.72707764126858</v>
       </c>
       <c r="V6" s="2">
-        <v>687.15687244834828</v>
+        <v>354.14781473908209</v>
       </c>
       <c r="W6" s="2">
-        <v>519.96993611424261</v>
+        <v>483.27212540080745</v>
       </c>
       <c r="X6" s="2">
-        <v>278.06068899782139</v>
+        <v>395.82657167555965</v>
       </c>
       <c r="Y6" s="2">
-        <v>332.57074277074281</v>
+        <v>457.60383338567129</v>
       </c>
       <c r="Z6" s="2">
-        <v>316.72550992901432</v>
+        <v>342.95851275917062</v>
       </c>
       <c r="AA6" s="2">
-        <v>403.25285898143034</v>
+        <v>393.74419946780938</v>
       </c>
       <c r="AB6" s="2">
-        <v>591.89535663841798</v>
+        <v>339.57959211168935</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2263,7 +2263,7 @@
         <v>519.11750000000006</v>
       </c>
       <c r="M7" s="2">
-        <v>414.52000000000004</v>
+        <v>414.52</v>
       </c>
       <c r="N7" s="2">
         <v>524.33999999999992</v>
@@ -2287,7 +2287,7 @@
         <v>324.5025</v>
       </c>
       <c r="U7" s="2">
-        <v>362.3250000000001</v>
+        <v>362.32500000000005</v>
       </c>
       <c r="V7" s="2">
         <v>502.86750000000001</v>
@@ -2302,7 +2302,7 @@
         <v>267.42999999999995</v>
       </c>
       <c r="Z7" s="2">
-        <v>500.51</v>
+        <v>500.51000000000005</v>
       </c>
       <c r="AA7" s="2">
         <v>411.73750000000001</v>
@@ -2365,16 +2365,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="5">
-        <v>2635.8750000000009</v>
+        <v>3400.5975000000026</v>
       </c>
       <c r="C3" s="5">
-        <v>4393.1250000000073</v>
+        <v>5667.662499999994</v>
       </c>
       <c r="D3" s="5">
-        <v>7028.9999999999955</v>
+        <v>9068.2599999999948</v>
       </c>
       <c r="E3" s="5">
-        <v>7028.9999999999955</v>
+        <v>9068.2599999999948</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,16 +2382,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="5">
-        <v>12.565398229033843</v>
+        <v>12.984087741738435</v>
       </c>
       <c r="C4" s="5">
-        <v>20.942330381723099</v>
+        <v>21.640146236230688</v>
       </c>
       <c r="D4" s="5">
-        <v>33.507728610756885</v>
+        <v>34.624233977969112</v>
       </c>
       <c r="E4" s="5">
-        <v>33.507728610756885</v>
+        <v>34.624233977969112</v>
       </c>
     </row>
   </sheetData>

--- a/江西/导出模板/合同分析结果.xlsx
+++ b/江西/导出模板/合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD12C47-EF81-42C2-84B4-DE0936C2CF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A405F232-EF93-4E0E-AD29-7B312F3323B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -274,6 +274,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,7 +361,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -588,22 +656,22 @@
         <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>1189.2306207999998</v>
+        <v>203.15344530000004</v>
       </c>
       <c r="C2" s="2">
-        <v>1183.0654796075</v>
+        <v>189.55248692750001</v>
       </c>
       <c r="D2" s="2">
-        <v>6.1651411924997346</v>
+        <v>13.600958372500026</v>
       </c>
       <c r="E2" s="2">
-        <v>26190.499999999996</v>
+        <v>4240.7099999999991</v>
       </c>
       <c r="F2" s="2">
-        <v>454.06946060594493</v>
+        <v>479.055265038166</v>
       </c>
       <c r="G2" s="2">
-        <v>451.7154997451367</v>
+        <v>446.98290363524046</v>
       </c>
     </row>
   </sheetData>
@@ -726,76 +794,76 @@
         <v>34</v>
       </c>
       <c r="E2" s="2">
-        <v>197992.44099999999</v>
+        <v>34747.019</v>
       </c>
       <c r="F2" s="2">
-        <v>307218.03999999998</v>
+        <v>32671.352999999996</v>
       </c>
       <c r="G2" s="2">
-        <v>340743.81999999995</v>
+        <v>34566.347999999998</v>
       </c>
       <c r="H2" s="2">
-        <v>225062.60699999999</v>
+        <v>35464.43</v>
       </c>
       <c r="I2" s="2">
-        <v>271466.196</v>
+        <v>48421.438999999998</v>
       </c>
       <c r="J2" s="2">
-        <v>259829.45599999998</v>
+        <v>26539.601999999999</v>
       </c>
       <c r="K2" s="2">
-        <v>287346.37800000003</v>
+        <v>78875.843999999997</v>
       </c>
       <c r="L2" s="2">
-        <v>253826.59599999999</v>
+        <v>57233.294999999998</v>
       </c>
       <c r="M2" s="2">
-        <v>232331.96099999998</v>
+        <v>56008.226999999999</v>
       </c>
       <c r="N2" s="2">
-        <v>242420.492</v>
+        <v>25035.406999999999</v>
       </c>
       <c r="O2" s="2">
-        <v>307093.28000000003</v>
+        <v>38577.157000000007</v>
       </c>
       <c r="P2" s="2">
-        <v>224557.43</v>
+        <v>77845.103000000003</v>
       </c>
       <c r="Q2" s="2">
-        <v>306485.125</v>
+        <v>55404.269</v>
       </c>
       <c r="R2" s="2">
-        <v>190246.03700000001</v>
+        <v>39803.800000000003</v>
       </c>
       <c r="S2" s="2">
-        <v>256867.01700000002</v>
+        <v>48273.256000000001</v>
       </c>
       <c r="T2" s="2">
-        <v>209636.9</v>
+        <v>19352.940999999999</v>
       </c>
       <c r="U2" s="2">
-        <v>238934.755</v>
+        <v>21882.311999999998</v>
       </c>
       <c r="V2" s="2">
-        <v>231922.57799999998</v>
+        <v>17204.819</v>
       </c>
       <c r="W2" s="2">
-        <v>287045.61499999999</v>
+        <v>55809.000999999997</v>
       </c>
       <c r="X2" s="2">
-        <v>245038.63900000002</v>
+        <v>81842.087</v>
       </c>
       <c r="Y2" s="2">
-        <v>213234.13600000003</v>
+        <v>48263.807999999997</v>
       </c>
       <c r="Z2" s="2">
-        <v>262702.10100000002</v>
+        <v>51007.108</v>
       </c>
       <c r="AA2" s="2">
-        <v>199922.14800000002</v>
+        <v>33955.550000000003</v>
       </c>
       <c r="AB2" s="2">
-        <v>291446.39899999998</v>
+        <v>68190.66</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,76 +876,76 @@
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>413.42306696456535</v>
+        <v>272.37609939640981</v>
       </c>
       <c r="F3" s="2">
-        <v>534.18076227569895</v>
+        <v>378.53496697949248</v>
       </c>
       <c r="G3" s="2">
-        <v>527.66324950445971</v>
+        <v>355.91379736408561</v>
       </c>
       <c r="H3" s="2">
-        <v>451.8059320672902</v>
+        <v>482.96922238866944</v>
       </c>
       <c r="I3" s="2">
-        <v>484.89960703058011</v>
+        <v>627.62720674011655</v>
       </c>
       <c r="J3" s="2">
-        <v>499.62399000096144</v>
+        <v>423.27913875598085</v>
       </c>
       <c r="K3" s="2">
-        <v>521.35784813571615</v>
+        <v>638.10245125798872</v>
       </c>
       <c r="L3" s="2">
-        <v>541.34660467497008</v>
+        <v>560.45138072855457</v>
       </c>
       <c r="M3" s="2">
-        <v>433.13191834451902</v>
+        <v>604.38358692133374</v>
       </c>
       <c r="N3" s="2">
-        <v>519.94786376115303</v>
+        <v>494.18489932885899</v>
       </c>
       <c r="O3" s="2">
-        <v>530.53223688756827</v>
+        <v>703.83428206531664</v>
       </c>
       <c r="P3" s="2">
-        <v>514.70942972403054</v>
+        <v>586.22714812862421</v>
       </c>
       <c r="Q3" s="2">
-        <v>507.3585038405509</v>
+        <v>526.20637287491695</v>
       </c>
       <c r="R3" s="2">
-        <v>409.29850261397138</v>
+        <v>618.74397637183279</v>
       </c>
       <c r="S3" s="2">
-        <v>493.90854500355721</v>
+        <v>448.9282618804055</v>
       </c>
       <c r="T3" s="2">
-        <v>468.71372356123953</v>
+        <v>363.36727375140816</v>
       </c>
       <c r="U3" s="2">
-        <v>493.98324339969815</v>
+        <v>385.65935847726473</v>
       </c>
       <c r="V3" s="2">
-        <v>442.93000133687292</v>
+        <v>377.54704849681809</v>
       </c>
       <c r="W3" s="2">
-        <v>508.98222391658976</v>
+        <v>694.40090829911651</v>
       </c>
       <c r="X3" s="2">
-        <v>578.63096013979418</v>
+        <v>774.14005864547858</v>
       </c>
       <c r="Y3" s="2">
-        <v>432.49728414092453</v>
+        <v>628.43499999999995</v>
       </c>
       <c r="Z3" s="2">
-        <v>555.21948853429149</v>
+        <v>696.34277133105797</v>
       </c>
       <c r="AA3" s="2">
-        <v>393.86541894048349</v>
+        <v>433.21701964786934</v>
       </c>
       <c r="AB3" s="2">
-        <v>473.9736526264432</v>
+        <v>459.47483323226191</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -890,76 +958,76 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>478.90999999999997</v>
+        <v>127.57</v>
       </c>
       <c r="F4" s="2">
-        <v>575.12</v>
+        <v>86.31</v>
       </c>
       <c r="G4" s="2">
-        <v>645.7600000000001</v>
+        <v>97.12</v>
       </c>
       <c r="H4" s="2">
-        <v>498.1400000000001</v>
+        <v>73.430000000000007</v>
       </c>
       <c r="I4" s="2">
-        <v>559.84</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="J4" s="2">
-        <v>520.04999999999995</v>
+        <v>62.7</v>
       </c>
       <c r="K4" s="2">
-        <v>551.15000000000009</v>
+        <v>123.61000000000001</v>
       </c>
       <c r="L4" s="2">
-        <v>468.88000000000005</v>
+        <v>102.12</v>
       </c>
       <c r="M4" s="2">
-        <v>536.4</v>
+        <v>92.67</v>
       </c>
       <c r="N4" s="2">
-        <v>466.24</v>
+        <v>50.660000000000004</v>
       </c>
       <c r="O4" s="2">
-        <v>578.84</v>
+        <v>54.81</v>
       </c>
       <c r="P4" s="2">
-        <v>436.27999999999992</v>
+        <v>132.79</v>
       </c>
       <c r="Q4" s="2">
-        <v>604.08000000000004</v>
+        <v>105.28999999999999</v>
       </c>
       <c r="R4" s="2">
-        <v>464.80999999999995</v>
+        <v>64.33</v>
       </c>
       <c r="S4" s="2">
-        <v>520.07000000000005</v>
+        <v>107.53</v>
       </c>
       <c r="T4" s="2">
-        <v>447.26</v>
+        <v>53.26</v>
       </c>
       <c r="U4" s="2">
-        <v>483.69</v>
+        <v>56.739999999999995</v>
       </c>
       <c r="V4" s="2">
-        <v>523.6099999999999</v>
+        <v>45.57</v>
       </c>
       <c r="W4" s="2">
-        <v>563.96</v>
+        <v>80.37</v>
       </c>
       <c r="X4" s="2">
-        <v>423.47999999999996</v>
+        <v>105.72</v>
       </c>
       <c r="Y4" s="2">
-        <v>493.03000000000003</v>
+        <v>76.8</v>
       </c>
       <c r="Z4" s="2">
-        <v>473.15</v>
+        <v>73.25</v>
       </c>
       <c r="AA4" s="2">
-        <v>507.59</v>
+        <v>78.38000000000001</v>
       </c>
       <c r="AB4" s="2">
-        <v>614.90000000000009</v>
+        <v>148.41000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -972,76 +1040,76 @@
         <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>208137.57600000003</v>
+        <v>32581.216</v>
       </c>
       <c r="F5" s="2">
-        <v>228643.70299999998</v>
+        <v>26011.986000000004</v>
       </c>
       <c r="G5" s="2">
-        <v>262820.48899999994</v>
+        <v>28931.886000000002</v>
       </c>
       <c r="H5" s="2">
-        <v>262999.51399999997</v>
+        <v>15012.008000000002</v>
       </c>
       <c r="I5" s="2">
-        <v>287325.21100000001</v>
+        <v>87627.6</v>
       </c>
       <c r="J5" s="2">
-        <v>235581.99399999998</v>
+        <v>49060.93</v>
       </c>
       <c r="K5" s="2">
-        <v>208068.88399999999</v>
+        <v>53345.46</v>
       </c>
       <c r="L5" s="2">
-        <v>165640.867</v>
+        <v>7373.1059999999998</v>
       </c>
       <c r="M5" s="2">
-        <v>290892.26100000006</v>
+        <v>54558.958000000013</v>
       </c>
       <c r="N5" s="2">
-        <v>241824.21699999998</v>
+        <v>58822.690999999992</v>
       </c>
       <c r="O5" s="2">
-        <v>242968.36500000002</v>
+        <v>42054.244999999995</v>
       </c>
       <c r="P5" s="2">
-        <v>276167.50299999997</v>
+        <v>47274.411</v>
       </c>
       <c r="Q5" s="2">
-        <v>265212.79200000002</v>
+        <v>51692.686000000009</v>
       </c>
       <c r="R5" s="2">
-        <v>170184.397</v>
+        <v>7974.6589999999997</v>
       </c>
       <c r="S5" s="2">
-        <v>270464.47200000001</v>
+        <v>37961.576999999997</v>
       </c>
       <c r="T5" s="2">
-        <v>297527.179</v>
+        <v>50143.752</v>
       </c>
       <c r="U5" s="2">
-        <v>285026.88399999996</v>
+        <v>32306.199000000001</v>
       </c>
       <c r="V5" s="2">
-        <v>213030.535</v>
+        <v>36635.567999999999</v>
       </c>
       <c r="W5" s="2">
-        <v>290886.32500000001</v>
+        <v>51707.412000000004</v>
       </c>
       <c r="X5" s="2">
-        <v>265575.88</v>
+        <v>39881.368000000002</v>
       </c>
       <c r="Y5" s="2">
-        <v>204008.94099999999</v>
+        <v>24472.720000000001</v>
       </c>
       <c r="Z5" s="2">
-        <v>206433.58799999999</v>
+        <v>37984.671000000002</v>
       </c>
       <c r="AA5" s="2">
-        <v>227875.51800000001</v>
+        <v>50828.27</v>
       </c>
       <c r="AB5" s="2">
-        <v>201638.96600000001</v>
+        <v>20316.239000000001</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1054,76 +1122,76 @@
         <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>337.90761737775182</v>
+        <v>290.56644965664856</v>
       </c>
       <c r="F6" s="2">
-        <v>440.13956841456837</v>
+        <v>362.08221046770603</v>
       </c>
       <c r="G6" s="2">
-        <v>430.1199414113641</v>
+        <v>321.93041059307893</v>
       </c>
       <c r="H6" s="2">
-        <v>445.97353659363756</v>
+        <v>242.40284191829485</v>
       </c>
       <c r="I6" s="2">
-        <v>507.00571897443137</v>
+        <v>665.66089334548769</v>
       </c>
       <c r="J6" s="2">
-        <v>430.49118120020461</v>
+        <v>431.64640154847791</v>
       </c>
       <c r="K6" s="2">
-        <v>360.80475133522924</v>
+        <v>533.98858858858864</v>
       </c>
       <c r="L6" s="2">
-        <v>335.54313177352378</v>
+        <v>169.14673090158291</v>
       </c>
       <c r="M6" s="2">
-        <v>456.05835475981451</v>
+        <v>646.96973793430584</v>
       </c>
       <c r="N6" s="2">
-        <v>451.08884142587993</v>
+        <v>533.34564330401668</v>
       </c>
       <c r="O6" s="2">
-        <v>397.89133532031968</v>
+        <v>368.96161607299524</v>
       </c>
       <c r="P6" s="2">
-        <v>458.99398849886973</v>
+        <v>508.92895898374422</v>
       </c>
       <c r="Q6" s="2">
-        <v>473.42519100321323</v>
+        <v>613.05367647058836</v>
       </c>
       <c r="R6" s="2">
-        <v>342.60256270886174</v>
+        <v>158.9844298245614</v>
       </c>
       <c r="S6" s="2">
-        <v>457.51483862236955</v>
+        <v>502.33660182612147</v>
       </c>
       <c r="T6" s="2">
-        <v>537.91683209488178</v>
+        <v>471.40878067124186</v>
       </c>
       <c r="U6" s="2">
-        <v>515.72707764126858</v>
+        <v>427.38720730255324</v>
       </c>
       <c r="V6" s="2">
-        <v>354.14781473908209</v>
+        <v>361.08385570668241</v>
       </c>
       <c r="W6" s="2">
-        <v>483.27212540080745</v>
+        <v>443.4597941680961</v>
       </c>
       <c r="X6" s="2">
-        <v>395.82657167555965</v>
+        <v>291.0623850532769</v>
       </c>
       <c r="Y6" s="2">
-        <v>457.60383338567129</v>
+        <v>628.31116816431324</v>
       </c>
       <c r="Z6" s="2">
-        <v>342.95851275917062</v>
+        <v>607.17185102301789</v>
       </c>
       <c r="AA6" s="2">
-        <v>393.74419946780938</v>
+        <v>558.18438392268831</v>
       </c>
       <c r="AB6" s="2">
-        <v>339.57959211168935</v>
+        <v>206.44486332689769</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,76 +1204,76 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>615.96</v>
+        <v>112.13</v>
       </c>
       <c r="F7" s="2">
-        <v>519.48</v>
+        <v>71.84</v>
       </c>
       <c r="G7" s="2">
-        <v>611.04000000000008</v>
+        <v>89.86999999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>589.72</v>
+        <v>61.930000000000007</v>
       </c>
       <c r="I7" s="2">
-        <v>566.71</v>
+        <v>131.64000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>547.24</v>
+        <v>113.66</v>
       </c>
       <c r="K7" s="2">
-        <v>576.67999999999995</v>
+        <v>99.899999999999991</v>
       </c>
       <c r="L7" s="2">
-        <v>493.65</v>
+        <v>43.59</v>
       </c>
       <c r="M7" s="2">
-        <v>637.83999999999992</v>
+        <v>84.33</v>
       </c>
       <c r="N7" s="2">
-        <v>536.09</v>
+        <v>110.28999999999999</v>
       </c>
       <c r="O7" s="2">
-        <v>610.64</v>
+        <v>113.97999999999999</v>
       </c>
       <c r="P7" s="2">
-        <v>601.68000000000006</v>
+        <v>92.89</v>
       </c>
       <c r="Q7" s="2">
-        <v>560.19999999999993</v>
+        <v>84.32</v>
       </c>
       <c r="R7" s="2">
-        <v>496.74</v>
+        <v>50.16</v>
       </c>
       <c r="S7" s="2">
-        <v>591.16000000000008</v>
+        <v>75.569999999999993</v>
       </c>
       <c r="T7" s="2">
-        <v>553.1099999999999</v>
+        <v>106.37</v>
       </c>
       <c r="U7" s="2">
-        <v>552.67000000000007</v>
+        <v>75.59</v>
       </c>
       <c r="V7" s="2">
-        <v>601.52999999999986</v>
+        <v>101.46000000000001</v>
       </c>
       <c r="W7" s="2">
-        <v>601.91</v>
+        <v>116.6</v>
       </c>
       <c r="X7" s="2">
-        <v>670.94</v>
+        <v>137.02000000000001</v>
       </c>
       <c r="Y7" s="2">
-        <v>445.82000000000005</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="Z7" s="2">
-        <v>601.92000000000007</v>
+        <v>62.56</v>
       </c>
       <c r="AA7" s="2">
-        <v>578.74</v>
+        <v>91.06</v>
       </c>
       <c r="AB7" s="2">
-        <v>593.79</v>
+        <v>98.41</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1384,76 +1452,76 @@
         <v>36</v>
       </c>
       <c r="E2" s="2">
-        <v>32624.817999999999</v>
+        <v>-9302.9020000000019</v>
       </c>
       <c r="F2" s="2">
-        <v>133675.57999999999</v>
+        <v>6627.310499999996</v>
       </c>
       <c r="G2" s="2">
-        <v>156863.65999999992</v>
+        <v>6911.4279999999962</v>
       </c>
       <c r="H2" s="2">
-        <v>99157.721999999965</v>
+        <v>16904.997499999998</v>
       </c>
       <c r="I2" s="2">
-        <v>124648.15599999999</v>
+        <v>28188.851499999997</v>
       </c>
       <c r="J2" s="2">
-        <v>102384.31849999999</v>
+        <v>7557.1769999999997</v>
       </c>
       <c r="K2" s="2">
-        <v>66307.670500000007</v>
+        <v>29302.053499999995</v>
       </c>
       <c r="L2" s="2">
-        <v>24427.055999999953</v>
+        <v>7271.0849999999991</v>
       </c>
       <c r="M2" s="2">
-        <v>-51289.539000000019</v>
+        <v>7008.9644999999946</v>
       </c>
       <c r="N2" s="2">
-        <v>4987.7719999999972</v>
+        <v>-763.19800000000396</v>
       </c>
       <c r="O2" s="2">
-        <v>47570.366000000009</v>
+        <v>14003.093500000003</v>
       </c>
       <c r="P2" s="2">
-        <v>50394.453999999998</v>
+        <v>24835.334999999999</v>
       </c>
       <c r="Q2" s="2">
-        <v>128885.60499999998</v>
+        <v>24449.009000000002</v>
       </c>
       <c r="R2" s="2">
-        <v>43830.887000000017</v>
+        <v>19539.850000000002</v>
       </c>
       <c r="S2" s="2">
-        <v>61242.686500000011</v>
+        <v>7825.8464999999997</v>
       </c>
       <c r="T2" s="2">
-        <v>-4063.9280000000144</v>
+        <v>-6094.6870000000017</v>
       </c>
       <c r="U2" s="2">
-        <v>-44265.739999999991</v>
+        <v>-11338.957999999999</v>
       </c>
       <c r="V2" s="2">
-        <v>-117848.90199999994</v>
+        <v>-13235.940999999999</v>
       </c>
       <c r="W2" s="2">
-        <v>-139449.13500000001</v>
+        <v>-4970.8115000000034</v>
       </c>
       <c r="X2" s="2">
-        <v>-72359.620999999926</v>
+        <v>2604.9470000000001</v>
       </c>
       <c r="Y2" s="2">
-        <v>-152594.12399999998</v>
+        <v>-8721.7920000000013</v>
       </c>
       <c r="Z2" s="2">
-        <v>-54190.111499999941</v>
+        <v>1947.9205000000002</v>
       </c>
       <c r="AA2" s="2">
-        <v>-81979.379274999927</v>
+        <v>-9574.5465499999991</v>
       </c>
       <c r="AB2" s="2">
-        <v>27562.063999999955</v>
+        <v>4500.5084999999963</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1466,76 +1534,76 @@
         <v>37</v>
       </c>
       <c r="E3" s="2">
-        <v>165367.62299999999</v>
+        <v>44049.921000000002</v>
       </c>
       <c r="F3" s="2">
-        <v>173542.46</v>
+        <v>26044.0425</v>
       </c>
       <c r="G3" s="2">
-        <v>183880.16000000003</v>
+        <v>27654.920000000002</v>
       </c>
       <c r="H3" s="2">
-        <v>125904.88500000002</v>
+        <v>18559.432500000003</v>
       </c>
       <c r="I3" s="2">
-        <v>146818.04</v>
+        <v>20232.587500000001</v>
       </c>
       <c r="J3" s="2">
-        <v>157445.13749999998</v>
+        <v>18982.424999999999</v>
       </c>
       <c r="K3" s="2">
-        <v>221038.70750000002</v>
+        <v>49573.790500000003</v>
       </c>
       <c r="L3" s="2">
-        <v>229399.54000000004</v>
+        <v>49962.21</v>
       </c>
       <c r="M3" s="2">
-        <v>283621.5</v>
+        <v>48999.262500000004</v>
       </c>
       <c r="N3" s="2">
-        <v>237432.72</v>
+        <v>25798.605000000003</v>
       </c>
       <c r="O3" s="2">
-        <v>259522.91400000002</v>
+        <v>24574.063500000004</v>
       </c>
       <c r="P3" s="2">
-        <v>174162.976</v>
+        <v>53009.768000000004</v>
       </c>
       <c r="Q3" s="2">
-        <v>177599.52000000002</v>
+        <v>30955.26</v>
       </c>
       <c r="R3" s="2">
-        <v>146415.15</v>
+        <v>20263.95</v>
       </c>
       <c r="S3" s="2">
-        <v>195624.33050000001</v>
+        <v>40447.409500000002</v>
       </c>
       <c r="T3" s="2">
-        <v>213700.82800000001</v>
+        <v>25447.628000000001</v>
       </c>
       <c r="U3" s="2">
-        <v>283200.495</v>
+        <v>33221.269999999997</v>
       </c>
       <c r="V3" s="2">
-        <v>349771.47999999992</v>
+        <v>30440.76</v>
       </c>
       <c r="W3" s="2">
-        <v>426494.75</v>
+        <v>60779.8125</v>
       </c>
       <c r="X3" s="2">
-        <v>317398.25999999995</v>
+        <v>79237.14</v>
       </c>
       <c r="Y3" s="2">
-        <v>365828.26</v>
+        <v>56985.599999999999</v>
       </c>
       <c r="Z3" s="2">
-        <v>316892.21249999997</v>
+        <v>49059.1875</v>
       </c>
       <c r="AA3" s="2">
-        <v>281901.52727499994</v>
+        <v>43530.096550000002</v>
       </c>
       <c r="AB3" s="2">
-        <v>263884.33500000002</v>
+        <v>63690.151500000007</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,76 +1616,76 @@
         <v>36</v>
       </c>
       <c r="E4" s="2">
-        <v>-105439.96050000002</v>
+        <v>-24502.765375000003</v>
       </c>
       <c r="F4" s="2">
-        <v>-123663.73690000002</v>
+        <v>-22709.3632</v>
       </c>
       <c r="G4" s="2">
-        <v>-89723.621800000081</v>
+        <v>-22919.284524999992</v>
       </c>
       <c r="H4" s="2">
-        <v>157292.20399999997</v>
+        <v>3911.0555000000004</v>
       </c>
       <c r="I4" s="2">
-        <v>126440.49232499997</v>
+        <v>50255.991299999994</v>
       </c>
       <c r="J4" s="2">
-        <v>-44810.101000000053</v>
+        <v>-9175.6124999999956</v>
       </c>
       <c r="K4" s="2">
-        <v>-110029.24569999994</v>
+        <v>-1759.6297499999928</v>
       </c>
       <c r="L4" s="2">
-        <v>-90621.486875000031</v>
+        <v>-15255.225825000005</v>
       </c>
       <c r="M4" s="2">
-        <v>26494.82420000009</v>
+        <v>19602.486400000016</v>
       </c>
       <c r="N4" s="2">
-        <v>-39269.213599999988</v>
+        <v>993.23240000000806</v>
       </c>
       <c r="O4" s="2">
-        <v>4002.0340000000433</v>
+        <v>-2550.4032499999958</v>
       </c>
       <c r="P4" s="2">
-        <v>72358.932399999961</v>
+        <v>15809.549075000003</v>
       </c>
       <c r="Q4" s="2">
-        <v>-92759.209499999881</v>
+        <v>-2188.4263999999821</v>
       </c>
       <c r="R4" s="2">
-        <v>-78432.731150000036</v>
+        <v>-17130.295600000001</v>
       </c>
       <c r="S4" s="2">
-        <v>-126954.66120000003</v>
+        <v>-12841.866899999994</v>
       </c>
       <c r="T4" s="2">
-        <v>118041.60122500005</v>
+        <v>15626.421074999998</v>
       </c>
       <c r="U4" s="2">
-        <v>84780.72624999992</v>
+        <v>4918.052249999997</v>
       </c>
       <c r="V4" s="2">
-        <v>-89459.352274999925</v>
+        <v>-14385.368550000007</v>
       </c>
       <c r="W4" s="2">
-        <v>119519.53845000002</v>
+        <v>18510.809000000008</v>
       </c>
       <c r="X4" s="2">
-        <v>88122.314100000018</v>
+        <v>3641.6333000000086</v>
       </c>
       <c r="Y4" s="2">
-        <v>84783.2984</v>
+        <v>14056.321500000002</v>
       </c>
       <c r="Z4" s="2">
-        <v>-94833.391200000071</v>
+        <v>6672.7654000000002</v>
       </c>
       <c r="AA4" s="2">
-        <v>-10413.442749999987</v>
+        <v>13335.453249999991</v>
       </c>
       <c r="AB4" s="2">
-        <v>-110296.73469999997</v>
+        <v>-31381.486300000004</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1630,76 +1698,76 @@
         <v>37</v>
       </c>
       <c r="E5" s="2">
-        <v>313577.53650000005</v>
+        <v>57083.981375000003</v>
       </c>
       <c r="F5" s="2">
-        <v>352307.4399</v>
+        <v>48721.349200000004</v>
       </c>
       <c r="G5" s="2">
-        <v>352544.11080000002</v>
+        <v>51851.170524999994</v>
       </c>
       <c r="H5" s="2">
-        <v>105707.31</v>
+        <v>11100.952500000001</v>
       </c>
       <c r="I5" s="2">
-        <v>160884.71867500004</v>
+        <v>37371.608700000012</v>
       </c>
       <c r="J5" s="2">
-        <v>280392.09500000003</v>
+        <v>58236.542499999996</v>
       </c>
       <c r="K5" s="2">
-        <v>318098.12969999993</v>
+        <v>55105.089749999992</v>
       </c>
       <c r="L5" s="2">
-        <v>256262.35387500003</v>
+        <v>22628.331825000005</v>
       </c>
       <c r="M5" s="2">
-        <v>264397.43679999997</v>
+        <v>34956.471599999997</v>
       </c>
       <c r="N5" s="2">
-        <v>281093.43059999996</v>
+        <v>57829.458599999984</v>
       </c>
       <c r="O5" s="2">
-        <v>238966.33099999998</v>
+        <v>44604.648249999991</v>
       </c>
       <c r="P5" s="2">
-        <v>203808.57060000001</v>
+        <v>31464.861924999997</v>
       </c>
       <c r="Q5" s="2">
-        <v>357972.0014999999</v>
+        <v>53881.112399999991</v>
       </c>
       <c r="R5" s="2">
-        <v>248617.12815000003</v>
+        <v>25104.954600000001</v>
       </c>
       <c r="S5" s="2">
-        <v>397419.13320000004</v>
+        <v>50803.443899999991</v>
       </c>
       <c r="T5" s="2">
-        <v>179485.57777499995</v>
+        <v>34517.330925000002</v>
       </c>
       <c r="U5" s="2">
-        <v>200246.15775000004</v>
+        <v>27388.146750000004</v>
       </c>
       <c r="V5" s="2">
-        <v>302489.88727499993</v>
+        <v>51020.936550000006</v>
       </c>
       <c r="W5" s="2">
-        <v>171366.78654999999</v>
+        <v>33196.602999999996</v>
       </c>
       <c r="X5" s="2">
-        <v>177453.56589999999</v>
+        <v>36239.734699999994</v>
       </c>
       <c r="Y5" s="2">
-        <v>119225.64259999999</v>
+        <v>10416.398499999999</v>
       </c>
       <c r="Z5" s="2">
-        <v>301266.97920000006</v>
+        <v>31311.905600000002</v>
       </c>
       <c r="AA5" s="2">
-        <v>238288.96075</v>
+        <v>37492.816750000005</v>
       </c>
       <c r="AB5" s="2">
-        <v>311935.70069999999</v>
+        <v>51697.725300000006</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1829,76 +1897,76 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>478.90999999999997</v>
+        <v>127.57</v>
       </c>
       <c r="F2" s="2">
-        <v>575.12</v>
+        <v>86.31</v>
       </c>
       <c r="G2" s="2">
-        <v>645.7600000000001</v>
+        <v>97.12</v>
       </c>
       <c r="H2" s="2">
-        <v>498.1400000000001</v>
+        <v>73.430000000000007</v>
       </c>
       <c r="I2" s="2">
-        <v>559.84</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="J2" s="2">
-        <v>520.04999999999995</v>
+        <v>62.7</v>
       </c>
       <c r="K2" s="2">
-        <v>551.15000000000009</v>
+        <v>123.61000000000001</v>
       </c>
       <c r="L2" s="2">
-        <v>468.88000000000005</v>
+        <v>102.12</v>
       </c>
       <c r="M2" s="2">
-        <v>536.4</v>
+        <v>92.67</v>
       </c>
       <c r="N2" s="2">
-        <v>466.24</v>
+        <v>50.660000000000004</v>
       </c>
       <c r="O2" s="2">
-        <v>578.84</v>
+        <v>54.81</v>
       </c>
       <c r="P2" s="2">
-        <v>436.27999999999992</v>
+        <v>132.79</v>
       </c>
       <c r="Q2" s="2">
-        <v>604.08000000000004</v>
+        <v>105.28999999999999</v>
       </c>
       <c r="R2" s="2">
-        <v>464.80999999999995</v>
+        <v>64.33</v>
       </c>
       <c r="S2" s="2">
-        <v>520.07000000000005</v>
+        <v>107.53</v>
       </c>
       <c r="T2" s="2">
-        <v>447.26</v>
+        <v>53.26</v>
       </c>
       <c r="U2" s="2">
-        <v>483.69</v>
+        <v>56.739999999999995</v>
       </c>
       <c r="V2" s="2">
-        <v>523.6099999999999</v>
+        <v>45.57</v>
       </c>
       <c r="W2" s="2">
-        <v>563.96</v>
+        <v>80.37</v>
       </c>
       <c r="X2" s="2">
-        <v>423.47999999999996</v>
+        <v>105.72</v>
       </c>
       <c r="Y2" s="2">
-        <v>493.03000000000003</v>
+        <v>76.8</v>
       </c>
       <c r="Z2" s="2">
-        <v>473.15</v>
+        <v>73.25</v>
       </c>
       <c r="AA2" s="2">
-        <v>507.59</v>
+        <v>78.38000000000001</v>
       </c>
       <c r="AB2" s="2">
-        <v>614.90000000000009</v>
+        <v>148.41000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1911,76 +1979,76 @@
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>413.42306696456535</v>
+        <v>272.37609939640981</v>
       </c>
       <c r="F3" s="2">
-        <v>534.18076227569895</v>
+        <v>378.53496697949248</v>
       </c>
       <c r="G3" s="2">
-        <v>527.66324950445971</v>
+        <v>355.91379736408561</v>
       </c>
       <c r="H3" s="2">
-        <v>451.8059320672902</v>
+        <v>482.96922238866944</v>
       </c>
       <c r="I3" s="2">
-        <v>484.89960703058011</v>
+        <v>627.62720674011655</v>
       </c>
       <c r="J3" s="2">
-        <v>499.62399000096144</v>
+        <v>423.27913875598085</v>
       </c>
       <c r="K3" s="2">
-        <v>521.35784813571615</v>
+        <v>638.10245125798872</v>
       </c>
       <c r="L3" s="2">
-        <v>541.34660467497008</v>
+        <v>560.45138072855457</v>
       </c>
       <c r="M3" s="2">
-        <v>433.13191834451902</v>
+        <v>604.38358692133374</v>
       </c>
       <c r="N3" s="2">
-        <v>519.94786376115303</v>
+        <v>494.18489932885899</v>
       </c>
       <c r="O3" s="2">
-        <v>530.53223688756827</v>
+        <v>703.83428206531664</v>
       </c>
       <c r="P3" s="2">
-        <v>514.70942972403054</v>
+        <v>586.22714812862421</v>
       </c>
       <c r="Q3" s="2">
-        <v>507.3585038405509</v>
+        <v>526.20637287491695</v>
       </c>
       <c r="R3" s="2">
-        <v>409.29850261397138</v>
+        <v>618.74397637183279</v>
       </c>
       <c r="S3" s="2">
-        <v>493.90854500355721</v>
+        <v>448.9282618804055</v>
       </c>
       <c r="T3" s="2">
-        <v>468.71372356123953</v>
+        <v>363.36727375140816</v>
       </c>
       <c r="U3" s="2">
-        <v>493.98324339969815</v>
+        <v>385.65935847726473</v>
       </c>
       <c r="V3" s="2">
-        <v>442.93000133687292</v>
+        <v>377.54704849681809</v>
       </c>
       <c r="W3" s="2">
-        <v>508.98222391658976</v>
+        <v>694.40090829911651</v>
       </c>
       <c r="X3" s="2">
-        <v>578.63096013979418</v>
+        <v>774.14005864547858</v>
       </c>
       <c r="Y3" s="2">
-        <v>432.49728414092453</v>
+        <v>628.43499999999995</v>
       </c>
       <c r="Z3" s="2">
-        <v>555.21948853429149</v>
+        <v>696.34277133105797</v>
       </c>
       <c r="AA3" s="2">
-        <v>393.86541894048349</v>
+        <v>433.21701964786934</v>
       </c>
       <c r="AB3" s="2">
-        <v>473.9736526264432</v>
+        <v>459.47483323226191</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2014,7 +2082,7 @@
         <v>401.04999999999995</v>
       </c>
       <c r="L4" s="2">
-        <v>489.25</v>
+        <v>489.24999999999994</v>
       </c>
       <c r="M4" s="2">
         <v>528.75</v>
@@ -2023,7 +2091,7 @@
         <v>509.25</v>
       </c>
       <c r="O4" s="2">
-        <v>448.35</v>
+        <v>448.35000000000008</v>
       </c>
       <c r="P4" s="2">
         <v>399.20000000000005</v>
@@ -2035,7 +2103,7 @@
         <v>315</v>
       </c>
       <c r="S4" s="2">
-        <v>376.15</v>
+        <v>376.15000000000003</v>
       </c>
       <c r="T4" s="2">
         <v>477.8</v>
@@ -2075,76 +2143,76 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>615.96</v>
+        <v>112.13</v>
       </c>
       <c r="F5" s="2">
-        <v>519.48</v>
+        <v>71.84</v>
       </c>
       <c r="G5" s="2">
-        <v>611.04000000000008</v>
+        <v>89.86999999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>589.72</v>
+        <v>61.930000000000007</v>
       </c>
       <c r="I5" s="2">
-        <v>566.71</v>
+        <v>131.64000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>547.24</v>
+        <v>113.66</v>
       </c>
       <c r="K5" s="2">
-        <v>576.67999999999995</v>
+        <v>99.899999999999991</v>
       </c>
       <c r="L5" s="2">
-        <v>493.65</v>
+        <v>43.59</v>
       </c>
       <c r="M5" s="2">
-        <v>637.83999999999992</v>
+        <v>84.33</v>
       </c>
       <c r="N5" s="2">
-        <v>536.09</v>
+        <v>110.28999999999999</v>
       </c>
       <c r="O5" s="2">
-        <v>610.64</v>
+        <v>113.97999999999999</v>
       </c>
       <c r="P5" s="2">
-        <v>601.68000000000006</v>
+        <v>92.89</v>
       </c>
       <c r="Q5" s="2">
-        <v>560.19999999999993</v>
+        <v>84.32</v>
       </c>
       <c r="R5" s="2">
-        <v>496.74</v>
+        <v>50.16</v>
       </c>
       <c r="S5" s="2">
-        <v>591.16000000000008</v>
+        <v>75.569999999999993</v>
       </c>
       <c r="T5" s="2">
-        <v>553.1099999999999</v>
+        <v>106.37</v>
       </c>
       <c r="U5" s="2">
-        <v>552.67000000000007</v>
+        <v>75.59</v>
       </c>
       <c r="V5" s="2">
-        <v>601.52999999999986</v>
+        <v>101.46000000000001</v>
       </c>
       <c r="W5" s="2">
-        <v>601.91</v>
+        <v>116.6</v>
       </c>
       <c r="X5" s="2">
-        <v>670.94</v>
+        <v>137.02000000000001</v>
       </c>
       <c r="Y5" s="2">
-        <v>445.82000000000005</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="Z5" s="2">
-        <v>601.92000000000007</v>
+        <v>62.56</v>
       </c>
       <c r="AA5" s="2">
-        <v>578.74</v>
+        <v>91.06</v>
       </c>
       <c r="AB5" s="2">
-        <v>593.79</v>
+        <v>98.41</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2157,76 +2225,76 @@
         <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>337.90761737775182</v>
+        <v>290.56644965664856</v>
       </c>
       <c r="F6" s="2">
-        <v>440.13956841456837</v>
+        <v>362.08221046770603</v>
       </c>
       <c r="G6" s="2">
-        <v>430.1199414113641</v>
+        <v>321.93041059307893</v>
       </c>
       <c r="H6" s="2">
-        <v>445.97353659363756</v>
+        <v>242.40284191829485</v>
       </c>
       <c r="I6" s="2">
-        <v>507.00571897443137</v>
+        <v>665.66089334548769</v>
       </c>
       <c r="J6" s="2">
-        <v>430.49118120020461</v>
+        <v>431.64640154847791</v>
       </c>
       <c r="K6" s="2">
-        <v>360.80475133522924</v>
+        <v>533.98858858858864</v>
       </c>
       <c r="L6" s="2">
-        <v>335.54313177352378</v>
+        <v>169.14673090158291</v>
       </c>
       <c r="M6" s="2">
-        <v>456.05835475981451</v>
+        <v>646.96973793430584</v>
       </c>
       <c r="N6" s="2">
-        <v>451.08884142587993</v>
+        <v>533.34564330401668</v>
       </c>
       <c r="O6" s="2">
-        <v>397.89133532031968</v>
+        <v>368.96161607299524</v>
       </c>
       <c r="P6" s="2">
-        <v>458.99398849886973</v>
+        <v>508.92895898374422</v>
       </c>
       <c r="Q6" s="2">
-        <v>473.42519100321323</v>
+        <v>613.05367647058836</v>
       </c>
       <c r="R6" s="2">
-        <v>342.60256270886174</v>
+        <v>158.9844298245614</v>
       </c>
       <c r="S6" s="2">
-        <v>457.51483862236955</v>
+        <v>502.33660182612147</v>
       </c>
       <c r="T6" s="2">
-        <v>537.91683209488178</v>
+        <v>471.40878067124186</v>
       </c>
       <c r="U6" s="2">
-        <v>515.72707764126858</v>
+        <v>427.38720730255324</v>
       </c>
       <c r="V6" s="2">
-        <v>354.14781473908209</v>
+        <v>361.08385570668241</v>
       </c>
       <c r="W6" s="2">
-        <v>483.27212540080745</v>
+        <v>443.4597941680961</v>
       </c>
       <c r="X6" s="2">
-        <v>395.82657167555965</v>
+        <v>291.0623850532769</v>
       </c>
       <c r="Y6" s="2">
-        <v>457.60383338567129</v>
+        <v>628.31116816431324</v>
       </c>
       <c r="Z6" s="2">
-        <v>342.95851275917062</v>
+        <v>607.17185102301789</v>
       </c>
       <c r="AA6" s="2">
-        <v>393.74419946780938</v>
+        <v>558.18438392268831</v>
       </c>
       <c r="AB6" s="2">
-        <v>339.57959211168935</v>
+        <v>206.44486332689769</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2302,10 +2370,10 @@
         <v>267.42999999999995</v>
       </c>
       <c r="Z7" s="2">
-        <v>500.51000000000005</v>
+        <v>500.51</v>
       </c>
       <c r="AA7" s="2">
-        <v>411.73750000000001</v>
+        <v>411.73750000000007</v>
       </c>
       <c r="AB7" s="2">
         <v>525.33000000000004</v>
@@ -2365,16 +2433,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="5">
-        <v>3400.5975000000026</v>
+        <v>494.29999999999995</v>
       </c>
       <c r="C3" s="5">
-        <v>5667.662499999994</v>
+        <v>805.39999999999986</v>
       </c>
       <c r="D3" s="5">
-        <v>9068.2599999999948</v>
+        <v>1466.4399999999991</v>
       </c>
       <c r="E3" s="5">
-        <v>9068.2599999999948</v>
+        <v>1474.5700000000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,16 +2450,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="5">
-        <v>12.984087741738435</v>
+        <v>11.656067026512071</v>
       </c>
       <c r="C4" s="5">
-        <v>21.640146236230688</v>
+        <v>18.992102737513296</v>
       </c>
       <c r="D4" s="5">
-        <v>34.624233977969112</v>
+        <v>34.580058527935172</v>
       </c>
       <c r="E4" s="5">
-        <v>34.624233977969112</v>
+        <v>34.771771708039473</v>
       </c>
     </row>
   </sheetData>

--- a/江西/导出模板/合同分析结果.xlsx
+++ b/江西/导出模板/合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A405F232-EF93-4E0E-AD29-7B312F3323B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52CA84E9-6B2B-4416-AF55-6BBD0F11CC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -274,74 +274,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -361,7 +293,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -656,22 +588,22 @@
         <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>203.15344530000004</v>
+        <v>395.78903550000001</v>
       </c>
       <c r="C2" s="2">
-        <v>189.55248692750001</v>
+        <v>406.51310243500001</v>
       </c>
       <c r="D2" s="2">
-        <v>13.600958372500026</v>
+        <v>-10.72406693500001</v>
       </c>
       <c r="E2" s="2">
-        <v>4240.7099999999991</v>
+        <v>9015.0899999999983</v>
       </c>
       <c r="F2" s="2">
-        <v>479.055265038166</v>
+        <v>439.02948889029403</v>
       </c>
       <c r="G2" s="2">
-        <v>446.98290363524046</v>
+        <v>450.92517371984093</v>
       </c>
     </row>
   </sheetData>
@@ -794,76 +726,76 @@
         <v>34</v>
       </c>
       <c r="E2" s="2">
-        <v>34747.019</v>
+        <v>104476.834</v>
       </c>
       <c r="F2" s="2">
-        <v>32671.352999999996</v>
+        <v>98555.846000000005</v>
       </c>
       <c r="G2" s="2">
-        <v>34566.347999999998</v>
+        <v>114850.55399999999</v>
       </c>
       <c r="H2" s="2">
-        <v>35464.43</v>
+        <v>71935.366000000009</v>
       </c>
       <c r="I2" s="2">
-        <v>48421.438999999998</v>
+        <v>37231.289000000004</v>
       </c>
       <c r="J2" s="2">
-        <v>26539.601999999999</v>
+        <v>76614.689000000013</v>
       </c>
       <c r="K2" s="2">
-        <v>78875.843999999997</v>
+        <v>96198.634000000005</v>
       </c>
       <c r="L2" s="2">
-        <v>57233.294999999998</v>
+        <v>77404.343999999997</v>
       </c>
       <c r="M2" s="2">
-        <v>56008.226999999999</v>
+        <v>49824.292000000001</v>
       </c>
       <c r="N2" s="2">
-        <v>25035.406999999999</v>
+        <v>55706.691999999995</v>
       </c>
       <c r="O2" s="2">
-        <v>38577.157000000007</v>
+        <v>142706.65700000001</v>
       </c>
       <c r="P2" s="2">
-        <v>77845.103000000003</v>
+        <v>101937.71699999999</v>
       </c>
       <c r="Q2" s="2">
-        <v>55404.269</v>
+        <v>53749.877999999997</v>
       </c>
       <c r="R2" s="2">
-        <v>39803.800000000003</v>
+        <v>50404.858999999997</v>
       </c>
       <c r="S2" s="2">
-        <v>48273.256000000001</v>
+        <v>85980.962</v>
       </c>
       <c r="T2" s="2">
-        <v>19352.940999999999</v>
+        <v>51194.831999999995</v>
       </c>
       <c r="U2" s="2">
-        <v>21882.311999999998</v>
+        <v>82580.031000000003</v>
       </c>
       <c r="V2" s="2">
-        <v>17204.819</v>
+        <v>112921.811</v>
       </c>
       <c r="W2" s="2">
-        <v>55809.000999999997</v>
+        <v>116875.004</v>
       </c>
       <c r="X2" s="2">
-        <v>81842.087</v>
+        <v>72097.312999999995</v>
       </c>
       <c r="Y2" s="2">
-        <v>48263.807999999997</v>
+        <v>56555.890000000007</v>
       </c>
       <c r="Z2" s="2">
-        <v>51007.108</v>
+        <v>94527.618999999992</v>
       </c>
       <c r="AA2" s="2">
-        <v>33955.550000000003</v>
+        <v>86933.413</v>
       </c>
       <c r="AB2" s="2">
-        <v>68190.66</v>
+        <v>83700.689999999988</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,76 +808,76 @@
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>272.37609939640981</v>
+        <v>640.25514156146585</v>
       </c>
       <c r="F3" s="2">
-        <v>378.53496697949248</v>
+        <v>475.49498721474407</v>
       </c>
       <c r="G3" s="2">
-        <v>355.91379736408561</v>
+        <v>524.43175342465747</v>
       </c>
       <c r="H3" s="2">
-        <v>482.96922238866944</v>
+        <v>384.0239483237242</v>
       </c>
       <c r="I3" s="2">
-        <v>627.62720674011655</v>
+        <v>313.60587095687333</v>
       </c>
       <c r="J3" s="2">
-        <v>423.27913875598085</v>
+        <v>425.4244488866679</v>
       </c>
       <c r="K3" s="2">
-        <v>638.10245125798872</v>
+        <v>443.12789165783778</v>
       </c>
       <c r="L3" s="2">
-        <v>560.45138072855457</v>
+        <v>488.13990035946273</v>
       </c>
       <c r="M3" s="2">
-        <v>604.38358692133374</v>
+        <v>426.90679461914152</v>
       </c>
       <c r="N3" s="2">
-        <v>494.18489932885899</v>
+        <v>332.06182641869339</v>
       </c>
       <c r="O3" s="2">
-        <v>703.83428206531664</v>
+        <v>614.29407688003107</v>
       </c>
       <c r="P3" s="2">
-        <v>586.22714812862421</v>
+        <v>519.69266887586036</v>
       </c>
       <c r="Q3" s="2">
-        <v>526.20637287491695</v>
+        <v>339.35146158217054</v>
       </c>
       <c r="R3" s="2">
-        <v>618.74397637183279</v>
+        <v>363.75015515623869</v>
       </c>
       <c r="S3" s="2">
-        <v>448.9282618804055</v>
+        <v>447.72423453447192</v>
       </c>
       <c r="T3" s="2">
-        <v>363.36727375140816</v>
+        <v>252.30314917943915</v>
       </c>
       <c r="U3" s="2">
-        <v>385.65935847726473</v>
+        <v>386.91857283418449</v>
       </c>
       <c r="V3" s="2">
-        <v>377.54704849681809</v>
+        <v>592.26796915976081</v>
       </c>
       <c r="W3" s="2">
-        <v>694.40090829911651</v>
+        <v>439.24760974143118</v>
       </c>
       <c r="X3" s="2">
-        <v>774.14005864547858</v>
+        <v>507.54884195705728</v>
       </c>
       <c r="Y3" s="2">
-        <v>628.43499999999995</v>
+        <v>342.74219744257931</v>
       </c>
       <c r="Z3" s="2">
-        <v>696.34277133105797</v>
+        <v>605.24791266487375</v>
       </c>
       <c r="AA3" s="2">
-        <v>433.21701964786934</v>
+        <v>524.32697828709286</v>
       </c>
       <c r="AB3" s="2">
-        <v>459.47483323226191</v>
+        <v>584.17567001675036</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -958,76 +890,76 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>127.57</v>
+        <v>163.18</v>
       </c>
       <c r="F4" s="2">
-        <v>86.31</v>
+        <v>207.27</v>
       </c>
       <c r="G4" s="2">
-        <v>97.12</v>
+        <v>219</v>
       </c>
       <c r="H4" s="2">
-        <v>73.430000000000007</v>
+        <v>187.32</v>
       </c>
       <c r="I4" s="2">
-        <v>77.150000000000006</v>
+        <v>118.72</v>
       </c>
       <c r="J4" s="2">
-        <v>62.7</v>
+        <v>180.08999999999997</v>
       </c>
       <c r="K4" s="2">
-        <v>123.61000000000001</v>
+        <v>217.09</v>
       </c>
       <c r="L4" s="2">
-        <v>102.12</v>
+        <v>158.57</v>
       </c>
       <c r="M4" s="2">
-        <v>92.67</v>
+        <v>116.71</v>
       </c>
       <c r="N4" s="2">
-        <v>50.660000000000004</v>
+        <v>167.76</v>
       </c>
       <c r="O4" s="2">
-        <v>54.81</v>
+        <v>232.30999999999997</v>
       </c>
       <c r="P4" s="2">
-        <v>132.79</v>
+        <v>196.14999999999998</v>
       </c>
       <c r="Q4" s="2">
-        <v>105.28999999999999</v>
+        <v>158.39000000000001</v>
       </c>
       <c r="R4" s="2">
-        <v>64.33</v>
+        <v>138.57</v>
       </c>
       <c r="S4" s="2">
-        <v>107.53</v>
+        <v>192.04000000000002</v>
       </c>
       <c r="T4" s="2">
-        <v>53.26</v>
+        <v>202.91</v>
       </c>
       <c r="U4" s="2">
-        <v>56.739999999999995</v>
+        <v>213.43</v>
       </c>
       <c r="V4" s="2">
-        <v>45.57</v>
+        <v>190.66000000000003</v>
       </c>
       <c r="W4" s="2">
-        <v>80.37</v>
+        <v>266.08</v>
       </c>
       <c r="X4" s="2">
-        <v>105.72</v>
+        <v>142.05000000000001</v>
       </c>
       <c r="Y4" s="2">
-        <v>76.8</v>
+        <v>165.01</v>
       </c>
       <c r="Z4" s="2">
-        <v>73.25</v>
+        <v>156.18</v>
       </c>
       <c r="AA4" s="2">
-        <v>78.38000000000001</v>
+        <v>165.8</v>
       </c>
       <c r="AB4" s="2">
-        <v>148.41000000000003</v>
+        <v>143.28</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1040,76 +972,76 @@
         <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>32581.216</v>
+        <v>94985.051000000007</v>
       </c>
       <c r="F5" s="2">
-        <v>26011.986000000004</v>
+        <v>63423.918000000005</v>
       </c>
       <c r="G5" s="2">
-        <v>28931.886000000002</v>
+        <v>109943.774</v>
       </c>
       <c r="H5" s="2">
-        <v>15012.008000000002</v>
+        <v>159839.179</v>
       </c>
       <c r="I5" s="2">
-        <v>87627.6</v>
+        <v>96006.911000000007</v>
       </c>
       <c r="J5" s="2">
-        <v>49060.93</v>
+        <v>45422.87</v>
       </c>
       <c r="K5" s="2">
-        <v>53345.46</v>
+        <v>44826.131999999998</v>
       </c>
       <c r="L5" s="2">
-        <v>7373.1059999999998</v>
+        <v>116068.48</v>
       </c>
       <c r="M5" s="2">
-        <v>54558.958000000013</v>
+        <v>96165.171999999991</v>
       </c>
       <c r="N5" s="2">
-        <v>58822.690999999992</v>
+        <v>66309.59599999999</v>
       </c>
       <c r="O5" s="2">
-        <v>42054.244999999995</v>
+        <v>72818.554000000004</v>
       </c>
       <c r="P5" s="2">
-        <v>47274.411</v>
+        <v>74912.65800000001</v>
       </c>
       <c r="Q5" s="2">
-        <v>51692.686000000009</v>
+        <v>66748.453999999998</v>
       </c>
       <c r="R5" s="2">
-        <v>7974.6589999999997</v>
+        <v>85899.502000000008</v>
       </c>
       <c r="S5" s="2">
-        <v>37961.576999999997</v>
+        <v>101596.965</v>
       </c>
       <c r="T5" s="2">
-        <v>50143.752</v>
+        <v>81732.179000000018</v>
       </c>
       <c r="U5" s="2">
-        <v>32306.199000000001</v>
+        <v>92205.774999999994</v>
       </c>
       <c r="V5" s="2">
-        <v>36635.567999999999</v>
+        <v>67686.884999999995</v>
       </c>
       <c r="W5" s="2">
-        <v>51707.412000000004</v>
+        <v>103602.05600000001</v>
       </c>
       <c r="X5" s="2">
-        <v>39881.368000000002</v>
+        <v>44931.646000000001</v>
       </c>
       <c r="Y5" s="2">
-        <v>24472.720000000001</v>
+        <v>59097.004000000001</v>
       </c>
       <c r="Z5" s="2">
-        <v>37984.671000000002</v>
+        <v>65277.652999999998</v>
       </c>
       <c r="AA5" s="2">
-        <v>50828.27</v>
+        <v>102617.073</v>
       </c>
       <c r="AB5" s="2">
-        <v>20316.239000000001</v>
+        <v>70807.652000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1122,76 +1054,76 @@
         <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>290.56644965664856</v>
+        <v>349.37672784786849</v>
       </c>
       <c r="F6" s="2">
-        <v>362.08221046770603</v>
+        <v>344.09677734375003</v>
       </c>
       <c r="G6" s="2">
-        <v>321.93041059307893</v>
+        <v>484.50455667195484</v>
       </c>
       <c r="H6" s="2">
-        <v>242.40284191829485</v>
+        <v>630.03223886480089</v>
       </c>
       <c r="I6" s="2">
-        <v>665.66089334548769</v>
+        <v>564.97917377743784</v>
       </c>
       <c r="J6" s="2">
-        <v>431.64640154847791</v>
+        <v>325.54196230201393</v>
       </c>
       <c r="K6" s="2">
-        <v>533.98858858858864</v>
+        <v>170.75971201097101</v>
       </c>
       <c r="L6" s="2">
-        <v>169.14673090158291</v>
+        <v>577.94393267938062</v>
       </c>
       <c r="M6" s="2">
-        <v>646.96973793430584</v>
+        <v>456.75487793293433</v>
       </c>
       <c r="N6" s="2">
-        <v>533.34564330401668</v>
+        <v>334.22175403225799</v>
       </c>
       <c r="O6" s="2">
-        <v>368.96161607299524</v>
+        <v>386.85944854699045</v>
       </c>
       <c r="P6" s="2">
-        <v>508.92895898374422</v>
+        <v>405.63492527615341</v>
       </c>
       <c r="Q6" s="2">
-        <v>613.05367647058836</v>
+        <v>544.26332354859755</v>
       </c>
       <c r="R6" s="2">
-        <v>158.9844298245614</v>
+        <v>452.65058755335406</v>
       </c>
       <c r="S6" s="2">
-        <v>502.33660182612147</v>
+        <v>436.65691752267162</v>
       </c>
       <c r="T6" s="2">
-        <v>471.40878067124186</v>
+        <v>442.92082046279745</v>
       </c>
       <c r="U6" s="2">
-        <v>427.38720730255324</v>
+        <v>485.34464154121486</v>
       </c>
       <c r="V6" s="2">
-        <v>361.08385570668241</v>
+        <v>331.21396065766288</v>
       </c>
       <c r="W6" s="2">
-        <v>443.4597941680961</v>
+        <v>520.95366822547396</v>
       </c>
       <c r="X6" s="2">
-        <v>291.0623850532769</v>
+        <v>427.79821003522801</v>
       </c>
       <c r="Y6" s="2">
-        <v>628.31116816431324</v>
+        <v>529.02160952466215</v>
       </c>
       <c r="Z6" s="2">
-        <v>607.17185102301789</v>
+        <v>242.62275785170047</v>
       </c>
       <c r="AA6" s="2">
-        <v>558.18438392268831</v>
+        <v>540.06143360875751</v>
       </c>
       <c r="AB6" s="2">
-        <v>206.44486332689769</v>
+        <v>312.6993993993994</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1204,76 +1136,76 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>112.13</v>
+        <v>271.87</v>
       </c>
       <c r="F7" s="2">
-        <v>71.84</v>
+        <v>184.32</v>
       </c>
       <c r="G7" s="2">
-        <v>89.86999999999999</v>
+        <v>226.92000000000002</v>
       </c>
       <c r="H7" s="2">
-        <v>61.930000000000007</v>
+        <v>253.70000000000002</v>
       </c>
       <c r="I7" s="2">
-        <v>131.64000000000001</v>
+        <v>169.93</v>
       </c>
       <c r="J7" s="2">
-        <v>113.66</v>
+        <v>139.53</v>
       </c>
       <c r="K7" s="2">
-        <v>99.899999999999991</v>
+        <v>262.51</v>
       </c>
       <c r="L7" s="2">
-        <v>43.59</v>
+        <v>200.82999999999998</v>
       </c>
       <c r="M7" s="2">
-        <v>84.33</v>
+        <v>210.54</v>
       </c>
       <c r="N7" s="2">
-        <v>110.28999999999999</v>
+        <v>198.4</v>
       </c>
       <c r="O7" s="2">
-        <v>113.97999999999999</v>
+        <v>188.23</v>
       </c>
       <c r="P7" s="2">
-        <v>92.89</v>
+        <v>184.68</v>
       </c>
       <c r="Q7" s="2">
-        <v>84.32</v>
+        <v>122.64</v>
       </c>
       <c r="R7" s="2">
-        <v>50.16</v>
+        <v>189.77</v>
       </c>
       <c r="S7" s="2">
-        <v>75.569999999999993</v>
+        <v>232.67</v>
       </c>
       <c r="T7" s="2">
-        <v>106.37</v>
+        <v>184.53</v>
       </c>
       <c r="U7" s="2">
-        <v>75.59</v>
+        <v>189.98</v>
       </c>
       <c r="V7" s="2">
-        <v>101.46000000000001</v>
+        <v>204.36</v>
       </c>
       <c r="W7" s="2">
-        <v>116.6</v>
+        <v>198.87</v>
       </c>
       <c r="X7" s="2">
-        <v>137.02000000000001</v>
+        <v>105.03</v>
       </c>
       <c r="Y7" s="2">
-        <v>38.950000000000003</v>
+        <v>111.71</v>
       </c>
       <c r="Z7" s="2">
-        <v>62.56</v>
+        <v>269.04999999999995</v>
       </c>
       <c r="AA7" s="2">
-        <v>91.06</v>
+        <v>190.01</v>
       </c>
       <c r="AB7" s="2">
-        <v>98.41</v>
+        <v>226.44</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1452,76 +1384,76 @@
         <v>36</v>
       </c>
       <c r="E2" s="2">
-        <v>-9302.9020000000019</v>
+        <v>48130.78</v>
       </c>
       <c r="F2" s="2">
-        <v>6627.310499999996</v>
+        <v>36012.123500000002</v>
       </c>
       <c r="G2" s="2">
-        <v>6911.4279999999962</v>
+        <v>52490.303999999989</v>
       </c>
       <c r="H2" s="2">
-        <v>16904.997499999998</v>
+        <v>24590.236000000004</v>
       </c>
       <c r="I2" s="2">
-        <v>28188.851499999997</v>
+        <v>6096.9690000000046</v>
       </c>
       <c r="J2" s="2">
-        <v>7557.1769999999997</v>
+        <v>22092.441500000015</v>
       </c>
       <c r="K2" s="2">
-        <v>29302.053499999995</v>
+        <v>9134.6895000000222</v>
       </c>
       <c r="L2" s="2">
-        <v>7271.0849999999991</v>
+        <v>-176.02850000000035</v>
       </c>
       <c r="M2" s="2">
-        <v>7008.9644999999946</v>
+        <v>-11886.120499999997</v>
       </c>
       <c r="N2" s="2">
-        <v>-763.19800000000396</v>
+        <v>-29725.088000000003</v>
       </c>
       <c r="O2" s="2">
-        <v>14003.093500000003</v>
+        <v>38550.468500000017</v>
       </c>
       <c r="P2" s="2">
-        <v>24835.334999999999</v>
+        <v>23634.636999999988</v>
       </c>
       <c r="Q2" s="2">
-        <v>24449.009000000002</v>
+        <v>7183.2179999999935</v>
       </c>
       <c r="R2" s="2">
-        <v>19539.850000000002</v>
+        <v>6755.3089999999938</v>
       </c>
       <c r="S2" s="2">
-        <v>7825.8464999999997</v>
+        <v>13745.116000000009</v>
       </c>
       <c r="T2" s="2">
-        <v>-6094.6870000000017</v>
+        <v>-45755.566000000006</v>
       </c>
       <c r="U2" s="2">
-        <v>-11338.957999999999</v>
+        <v>-42383.233999999997</v>
       </c>
       <c r="V2" s="2">
-        <v>-13235.940999999999</v>
+        <v>-14439.069000000003</v>
       </c>
       <c r="W2" s="2">
-        <v>-4970.8115000000034</v>
+        <v>-84347.995999999999</v>
       </c>
       <c r="X2" s="2">
-        <v>2604.9470000000001</v>
+        <v>-34369.162000000011</v>
       </c>
       <c r="Y2" s="2">
-        <v>-8721.7920000000013</v>
+        <v>-65881.53</v>
       </c>
       <c r="Z2" s="2">
-        <v>1947.9205000000002</v>
+        <v>-10073.936000000002</v>
       </c>
       <c r="AA2" s="2">
-        <v>-9574.5465499999991</v>
+        <v>-5147.3475000000035</v>
       </c>
       <c r="AB2" s="2">
-        <v>4500.5084999999963</v>
+        <v>22212.077999999994</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1534,76 +1466,76 @@
         <v>37</v>
       </c>
       <c r="E3" s="2">
-        <v>44049.921000000002</v>
+        <v>56346.054000000004</v>
       </c>
       <c r="F3" s="2">
-        <v>26044.0425</v>
+        <v>62543.722500000003</v>
       </c>
       <c r="G3" s="2">
-        <v>27654.920000000002</v>
+        <v>62360.25</v>
       </c>
       <c r="H3" s="2">
-        <v>18559.432500000003</v>
+        <v>47345.130000000005</v>
       </c>
       <c r="I3" s="2">
-        <v>20232.587500000001</v>
+        <v>31134.32</v>
       </c>
       <c r="J3" s="2">
-        <v>18982.424999999999</v>
+        <v>54522.247499999998</v>
       </c>
       <c r="K3" s="2">
-        <v>49573.790500000003</v>
+        <v>87063.944499999983</v>
       </c>
       <c r="L3" s="2">
-        <v>49962.21</v>
+        <v>77580.372499999998</v>
       </c>
       <c r="M3" s="2">
-        <v>48999.262500000004</v>
+        <v>61710.412499999999</v>
       </c>
       <c r="N3" s="2">
-        <v>25798.605000000003</v>
+        <v>85431.78</v>
       </c>
       <c r="O3" s="2">
-        <v>24574.063500000004</v>
+        <v>104156.18849999999</v>
       </c>
       <c r="P3" s="2">
-        <v>53009.768000000004</v>
+        <v>78303.08</v>
       </c>
       <c r="Q3" s="2">
-        <v>30955.26</v>
+        <v>46566.66</v>
       </c>
       <c r="R3" s="2">
-        <v>20263.95</v>
+        <v>43649.55</v>
       </c>
       <c r="S3" s="2">
-        <v>40447.409500000002</v>
+        <v>72235.84599999999</v>
       </c>
       <c r="T3" s="2">
-        <v>25447.628000000001</v>
+        <v>96950.398000000001</v>
       </c>
       <c r="U3" s="2">
-        <v>33221.269999999997</v>
+        <v>124963.265</v>
       </c>
       <c r="V3" s="2">
-        <v>30440.76</v>
+        <v>127360.88</v>
       </c>
       <c r="W3" s="2">
-        <v>60779.8125</v>
+        <v>201223</v>
       </c>
       <c r="X3" s="2">
-        <v>79237.14</v>
+        <v>106466.47500000001</v>
       </c>
       <c r="Y3" s="2">
-        <v>56985.599999999999</v>
+        <v>122437.42</v>
       </c>
       <c r="Z3" s="2">
-        <v>49059.1875</v>
+        <v>104601.55499999999</v>
       </c>
       <c r="AA3" s="2">
-        <v>43530.096550000002</v>
+        <v>92080.760500000004</v>
       </c>
       <c r="AB3" s="2">
-        <v>63690.151500000007</v>
+        <v>61488.611999999994</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1616,76 +1548,76 @@
         <v>36</v>
       </c>
       <c r="E4" s="2">
-        <v>-24502.765375000003</v>
+        <v>-7336.5988249999937</v>
       </c>
       <c r="F4" s="2">
-        <v>-22709.3632</v>
+        <v>-48300.50469999999</v>
       </c>
       <c r="G4" s="2">
-        <v>-22919.284524999992</v>
+        <v>-666.97860000000219</v>
       </c>
       <c r="H4" s="2">
-        <v>3911.0555000000004</v>
+        <v>74822.553749999992</v>
       </c>
       <c r="I4" s="2">
-        <v>50255.991299999994</v>
+        <v>19283.939100000003</v>
       </c>
       <c r="J4" s="2">
-        <v>-9175.6124999999956</v>
+        <v>-14231.479149999999</v>
       </c>
       <c r="K4" s="2">
-        <v>-1759.6297499999928</v>
+        <v>-66970.745375000013</v>
       </c>
       <c r="L4" s="2">
-        <v>-15255.225825000005</v>
+        <v>-4638.4944999999861</v>
       </c>
       <c r="M4" s="2">
-        <v>19602.486400000016</v>
+        <v>4429.492900000012</v>
       </c>
       <c r="N4" s="2">
-        <v>993.23240000000806</v>
+        <v>-30927.029950000011</v>
       </c>
       <c r="O4" s="2">
-        <v>-2550.4032499999958</v>
+        <v>2435.4788250000129</v>
       </c>
       <c r="P4" s="2">
-        <v>15809.549075000003</v>
+        <v>4180.9193250000098</v>
       </c>
       <c r="Q4" s="2">
-        <v>-2188.4263999999821</v>
+        <v>10022.472500000003</v>
       </c>
       <c r="R4" s="2">
-        <v>-17130.295600000001</v>
+        <v>-10253.943274999998</v>
       </c>
       <c r="S4" s="2">
-        <v>-12841.866899999994</v>
+        <v>-9919.8714000000036</v>
       </c>
       <c r="T4" s="2">
-        <v>15626.421074999998</v>
+        <v>-570.92827499998384</v>
       </c>
       <c r="U4" s="2">
-        <v>4918.052249999997</v>
+        <v>30273.901949999992</v>
       </c>
       <c r="V4" s="2">
-        <v>-14385.368550000007</v>
+        <v>-8352.4035500000027</v>
       </c>
       <c r="W4" s="2">
-        <v>18510.809000000008</v>
+        <v>42020.003450000011</v>
       </c>
       <c r="X4" s="2">
-        <v>3641.6333000000086</v>
+        <v>11580.274450000004</v>
       </c>
       <c r="Y4" s="2">
-        <v>14056.321500000002</v>
+        <v>22359.718700000005</v>
       </c>
       <c r="Z4" s="2">
-        <v>6672.7654000000002</v>
+        <v>-72217.584075000021</v>
       </c>
       <c r="AA4" s="2">
-        <v>13335.453249999991</v>
+        <v>10841.533075000014</v>
       </c>
       <c r="AB4" s="2">
-        <v>-31381.486300000004</v>
+        <v>-31547.688200000004</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1698,76 +1630,76 @@
         <v>37</v>
       </c>
       <c r="E5" s="2">
-        <v>57083.981375000003</v>
+        <v>102321.649825</v>
       </c>
       <c r="F5" s="2">
-        <v>48721.349200000004</v>
+        <v>111724.4227</v>
       </c>
       <c r="G5" s="2">
-        <v>51851.170524999994</v>
+        <v>110610.75260000001</v>
       </c>
       <c r="H5" s="2">
-        <v>11100.952500000001</v>
+        <v>85016.625250000012</v>
       </c>
       <c r="I5" s="2">
-        <v>37371.608700000012</v>
+        <v>76722.971900000004</v>
       </c>
       <c r="J5" s="2">
-        <v>58236.542499999996</v>
+        <v>59654.349150000002</v>
       </c>
       <c r="K5" s="2">
-        <v>55105.089749999992</v>
+        <v>111796.87737500001</v>
       </c>
       <c r="L5" s="2">
-        <v>22628.331825000005</v>
+        <v>120706.97449999998</v>
       </c>
       <c r="M5" s="2">
-        <v>34956.471599999997</v>
+        <v>91735.679099999979</v>
       </c>
       <c r="N5" s="2">
-        <v>57829.458599999984</v>
+        <v>97236.625950000001</v>
       </c>
       <c r="O5" s="2">
-        <v>44604.648249999991</v>
+        <v>70383.075174999991</v>
       </c>
       <c r="P5" s="2">
-        <v>31464.861924999997</v>
+        <v>70731.738675000001</v>
       </c>
       <c r="Q5" s="2">
-        <v>53881.112399999991</v>
+        <v>56725.981499999994</v>
       </c>
       <c r="R5" s="2">
-        <v>25104.954600000001</v>
+        <v>96153.445275000005</v>
       </c>
       <c r="S5" s="2">
-        <v>50803.443899999991</v>
+        <v>111516.8364</v>
       </c>
       <c r="T5" s="2">
-        <v>34517.330925000002</v>
+        <v>82303.107275000002</v>
       </c>
       <c r="U5" s="2">
-        <v>27388.146750000004</v>
+        <v>61931.873050000002</v>
       </c>
       <c r="V5" s="2">
-        <v>51020.936550000006</v>
+        <v>76039.288549999997</v>
       </c>
       <c r="W5" s="2">
-        <v>33196.602999999996</v>
+        <v>61582.05255</v>
       </c>
       <c r="X5" s="2">
-        <v>36239.734699999994</v>
+        <v>33351.371549999996</v>
       </c>
       <c r="Y5" s="2">
-        <v>10416.398499999999</v>
+        <v>36737.285299999996</v>
       </c>
       <c r="Z5" s="2">
-        <v>31311.905600000002</v>
+        <v>137495.23707500001</v>
       </c>
       <c r="AA5" s="2">
-        <v>37492.816750000005</v>
+        <v>91775.53992499999</v>
       </c>
       <c r="AB5" s="2">
-        <v>51697.725300000006</v>
+        <v>102355.34020000001</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,76 +1829,76 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>127.57</v>
+        <v>163.18</v>
       </c>
       <c r="F2" s="2">
-        <v>86.31</v>
+        <v>207.27</v>
       </c>
       <c r="G2" s="2">
-        <v>97.12</v>
+        <v>219</v>
       </c>
       <c r="H2" s="2">
-        <v>73.430000000000007</v>
+        <v>187.32</v>
       </c>
       <c r="I2" s="2">
-        <v>77.150000000000006</v>
+        <v>118.72</v>
       </c>
       <c r="J2" s="2">
-        <v>62.7</v>
+        <v>180.08999999999997</v>
       </c>
       <c r="K2" s="2">
-        <v>123.61000000000001</v>
+        <v>217.09</v>
       </c>
       <c r="L2" s="2">
-        <v>102.12</v>
+        <v>158.57</v>
       </c>
       <c r="M2" s="2">
-        <v>92.67</v>
+        <v>116.71</v>
       </c>
       <c r="N2" s="2">
-        <v>50.660000000000004</v>
+        <v>167.76</v>
       </c>
       <c r="O2" s="2">
-        <v>54.81</v>
+        <v>232.30999999999997</v>
       </c>
       <c r="P2" s="2">
-        <v>132.79</v>
+        <v>196.14999999999998</v>
       </c>
       <c r="Q2" s="2">
-        <v>105.28999999999999</v>
+        <v>158.39000000000001</v>
       </c>
       <c r="R2" s="2">
-        <v>64.33</v>
+        <v>138.57</v>
       </c>
       <c r="S2" s="2">
-        <v>107.53</v>
+        <v>192.04000000000002</v>
       </c>
       <c r="T2" s="2">
-        <v>53.26</v>
+        <v>202.91</v>
       </c>
       <c r="U2" s="2">
-        <v>56.739999999999995</v>
+        <v>213.43</v>
       </c>
       <c r="V2" s="2">
-        <v>45.57</v>
+        <v>190.66000000000003</v>
       </c>
       <c r="W2" s="2">
-        <v>80.37</v>
+        <v>266.08</v>
       </c>
       <c r="X2" s="2">
-        <v>105.72</v>
+        <v>142.05000000000001</v>
       </c>
       <c r="Y2" s="2">
-        <v>76.8</v>
+        <v>165.01</v>
       </c>
       <c r="Z2" s="2">
-        <v>73.25</v>
+        <v>156.18</v>
       </c>
       <c r="AA2" s="2">
-        <v>78.38000000000001</v>
+        <v>165.8</v>
       </c>
       <c r="AB2" s="2">
-        <v>148.41000000000003</v>
+        <v>143.28</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1979,76 +1911,76 @@
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>272.37609939640981</v>
+        <v>640.25514156146585</v>
       </c>
       <c r="F3" s="2">
-        <v>378.53496697949248</v>
+        <v>475.49498721474407</v>
       </c>
       <c r="G3" s="2">
-        <v>355.91379736408561</v>
+        <v>524.43175342465747</v>
       </c>
       <c r="H3" s="2">
-        <v>482.96922238866944</v>
+        <v>384.0239483237242</v>
       </c>
       <c r="I3" s="2">
-        <v>627.62720674011655</v>
+        <v>313.60587095687333</v>
       </c>
       <c r="J3" s="2">
-        <v>423.27913875598085</v>
+        <v>425.4244488866679</v>
       </c>
       <c r="K3" s="2">
-        <v>638.10245125798872</v>
+        <v>443.12789165783778</v>
       </c>
       <c r="L3" s="2">
-        <v>560.45138072855457</v>
+        <v>488.13990035946273</v>
       </c>
       <c r="M3" s="2">
-        <v>604.38358692133374</v>
+        <v>426.90679461914152</v>
       </c>
       <c r="N3" s="2">
-        <v>494.18489932885899</v>
+        <v>332.06182641869339</v>
       </c>
       <c r="O3" s="2">
-        <v>703.83428206531664</v>
+        <v>614.29407688003107</v>
       </c>
       <c r="P3" s="2">
-        <v>586.22714812862421</v>
+        <v>519.69266887586036</v>
       </c>
       <c r="Q3" s="2">
-        <v>526.20637287491695</v>
+        <v>339.35146158217054</v>
       </c>
       <c r="R3" s="2">
-        <v>618.74397637183279</v>
+        <v>363.75015515623869</v>
       </c>
       <c r="S3" s="2">
-        <v>448.9282618804055</v>
+        <v>447.72423453447192</v>
       </c>
       <c r="T3" s="2">
-        <v>363.36727375140816</v>
+        <v>252.30314917943915</v>
       </c>
       <c r="U3" s="2">
-        <v>385.65935847726473</v>
+        <v>386.91857283418449</v>
       </c>
       <c r="V3" s="2">
-        <v>377.54704849681809</v>
+        <v>592.26796915976081</v>
       </c>
       <c r="W3" s="2">
-        <v>694.40090829911651</v>
+        <v>439.24760974143118</v>
       </c>
       <c r="X3" s="2">
-        <v>774.14005864547858</v>
+        <v>507.54884195705728</v>
       </c>
       <c r="Y3" s="2">
-        <v>628.43499999999995</v>
+        <v>342.74219744257931</v>
       </c>
       <c r="Z3" s="2">
-        <v>696.34277133105797</v>
+        <v>605.24791266487375</v>
       </c>
       <c r="AA3" s="2">
-        <v>433.21701964786934</v>
+        <v>524.32697828709286</v>
       </c>
       <c r="AB3" s="2">
-        <v>459.47483323226191</v>
+        <v>584.17567001675036</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2070,19 +2002,19 @@
         <v>284.75</v>
       </c>
       <c r="H4" s="2">
-        <v>252.75</v>
+        <v>252.75000000000003</v>
       </c>
       <c r="I4" s="2">
         <v>262.25</v>
       </c>
       <c r="J4" s="2">
-        <v>302.75</v>
+        <v>302.75000000000006</v>
       </c>
       <c r="K4" s="2">
-        <v>401.04999999999995</v>
+        <v>401.0499999999999</v>
       </c>
       <c r="L4" s="2">
-        <v>489.24999999999994</v>
+        <v>489.25</v>
       </c>
       <c r="M4" s="2">
         <v>528.75</v>
@@ -2091,7 +2023,7 @@
         <v>509.25</v>
       </c>
       <c r="O4" s="2">
-        <v>448.35000000000008</v>
+        <v>448.35</v>
       </c>
       <c r="P4" s="2">
         <v>399.20000000000005</v>
@@ -2100,10 +2032,10 @@
         <v>294</v>
       </c>
       <c r="R4" s="2">
-        <v>315</v>
+        <v>315.00000000000006</v>
       </c>
       <c r="S4" s="2">
-        <v>376.15000000000003</v>
+        <v>376.14999999999992</v>
       </c>
       <c r="T4" s="2">
         <v>477.8</v>
@@ -2112,7 +2044,7 @@
         <v>585.5</v>
       </c>
       <c r="V4" s="2">
-        <v>668</v>
+        <v>667.99999999999989</v>
       </c>
       <c r="W4" s="2">
         <v>756.25</v>
@@ -2124,7 +2056,7 @@
         <v>742</v>
       </c>
       <c r="Z4" s="2">
-        <v>669.75</v>
+        <v>669.74999999999989</v>
       </c>
       <c r="AA4" s="2">
         <v>555.37249999999995</v>
@@ -2143,76 +2075,76 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>112.13</v>
+        <v>271.87</v>
       </c>
       <c r="F5" s="2">
-        <v>71.84</v>
+        <v>184.32</v>
       </c>
       <c r="G5" s="2">
-        <v>89.86999999999999</v>
+        <v>226.92000000000002</v>
       </c>
       <c r="H5" s="2">
-        <v>61.930000000000007</v>
+        <v>253.70000000000002</v>
       </c>
       <c r="I5" s="2">
-        <v>131.64000000000001</v>
+        <v>169.93</v>
       </c>
       <c r="J5" s="2">
-        <v>113.66</v>
+        <v>139.53</v>
       </c>
       <c r="K5" s="2">
-        <v>99.899999999999991</v>
+        <v>262.51</v>
       </c>
       <c r="L5" s="2">
-        <v>43.59</v>
+        <v>200.82999999999998</v>
       </c>
       <c r="M5" s="2">
-        <v>84.33</v>
+        <v>210.54</v>
       </c>
       <c r="N5" s="2">
-        <v>110.28999999999999</v>
+        <v>198.4</v>
       </c>
       <c r="O5" s="2">
-        <v>113.97999999999999</v>
+        <v>188.23</v>
       </c>
       <c r="P5" s="2">
-        <v>92.89</v>
+        <v>184.68</v>
       </c>
       <c r="Q5" s="2">
-        <v>84.32</v>
+        <v>122.64</v>
       </c>
       <c r="R5" s="2">
-        <v>50.16</v>
+        <v>189.77</v>
       </c>
       <c r="S5" s="2">
-        <v>75.569999999999993</v>
+        <v>232.67</v>
       </c>
       <c r="T5" s="2">
-        <v>106.37</v>
+        <v>184.53</v>
       </c>
       <c r="U5" s="2">
-        <v>75.59</v>
+        <v>189.98</v>
       </c>
       <c r="V5" s="2">
-        <v>101.46000000000001</v>
+        <v>204.36</v>
       </c>
       <c r="W5" s="2">
-        <v>116.6</v>
+        <v>198.87</v>
       </c>
       <c r="X5" s="2">
-        <v>137.02000000000001</v>
+        <v>105.03</v>
       </c>
       <c r="Y5" s="2">
-        <v>38.950000000000003</v>
+        <v>111.71</v>
       </c>
       <c r="Z5" s="2">
-        <v>62.56</v>
+        <v>269.04999999999995</v>
       </c>
       <c r="AA5" s="2">
-        <v>91.06</v>
+        <v>190.01</v>
       </c>
       <c r="AB5" s="2">
-        <v>98.41</v>
+        <v>226.44</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2225,76 +2157,76 @@
         <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>290.56644965664856</v>
+        <v>349.37672784786849</v>
       </c>
       <c r="F6" s="2">
-        <v>362.08221046770603</v>
+        <v>344.09677734375003</v>
       </c>
       <c r="G6" s="2">
-        <v>321.93041059307893</v>
+        <v>484.50455667195484</v>
       </c>
       <c r="H6" s="2">
-        <v>242.40284191829485</v>
+        <v>630.03223886480089</v>
       </c>
       <c r="I6" s="2">
-        <v>665.66089334548769</v>
+        <v>564.97917377743784</v>
       </c>
       <c r="J6" s="2">
-        <v>431.64640154847791</v>
+        <v>325.54196230201393</v>
       </c>
       <c r="K6" s="2">
-        <v>533.98858858858864</v>
+        <v>170.75971201097101</v>
       </c>
       <c r="L6" s="2">
-        <v>169.14673090158291</v>
+        <v>577.94393267938062</v>
       </c>
       <c r="M6" s="2">
-        <v>646.96973793430584</v>
+        <v>456.75487793293433</v>
       </c>
       <c r="N6" s="2">
-        <v>533.34564330401668</v>
+        <v>334.22175403225799</v>
       </c>
       <c r="O6" s="2">
-        <v>368.96161607299524</v>
+        <v>386.85944854699045</v>
       </c>
       <c r="P6" s="2">
-        <v>508.92895898374422</v>
+        <v>405.63492527615341</v>
       </c>
       <c r="Q6" s="2">
-        <v>613.05367647058836</v>
+        <v>544.26332354859755</v>
       </c>
       <c r="R6" s="2">
-        <v>158.9844298245614</v>
+        <v>452.65058755335406</v>
       </c>
       <c r="S6" s="2">
-        <v>502.33660182612147</v>
+        <v>436.65691752267162</v>
       </c>
       <c r="T6" s="2">
-        <v>471.40878067124186</v>
+        <v>442.92082046279745</v>
       </c>
       <c r="U6" s="2">
-        <v>427.38720730255324</v>
+        <v>485.34464154121486</v>
       </c>
       <c r="V6" s="2">
-        <v>361.08385570668241</v>
+        <v>331.21396065766288</v>
       </c>
       <c r="W6" s="2">
-        <v>443.4597941680961</v>
+        <v>520.95366822547396</v>
       </c>
       <c r="X6" s="2">
-        <v>291.0623850532769</v>
+        <v>427.79821003522801</v>
       </c>
       <c r="Y6" s="2">
-        <v>628.31116816431324</v>
+        <v>529.02160952466215</v>
       </c>
       <c r="Z6" s="2">
-        <v>607.17185102301789</v>
+        <v>242.62275785170047</v>
       </c>
       <c r="AA6" s="2">
-        <v>558.18438392268831</v>
+        <v>540.06143360875751</v>
       </c>
       <c r="AB6" s="2">
-        <v>206.44486332689769</v>
+        <v>312.6993993993994</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2307,76 +2239,76 @@
         <v>38</v>
       </c>
       <c r="E7" s="2">
-        <v>509.08750000000003</v>
+        <v>376.36241521683155</v>
       </c>
       <c r="F7" s="2">
-        <v>678.1925</v>
+        <v>606.14378634982643</v>
       </c>
       <c r="G7" s="2">
-        <v>576.95749999999998</v>
+        <v>487.44382425524412</v>
       </c>
       <c r="H7" s="2">
-        <v>179.25</v>
+        <v>335.10691860465118</v>
       </c>
       <c r="I7" s="2">
-        <v>283.89250000000004</v>
+        <v>451.49751015123877</v>
       </c>
       <c r="J7" s="2">
-        <v>512.375</v>
+        <v>427.53779939797892</v>
       </c>
       <c r="K7" s="2">
-        <v>551.60249999999996</v>
+        <v>425.87664231838795</v>
       </c>
       <c r="L7" s="2">
-        <v>519.11750000000006</v>
+        <v>601.04055420006966</v>
       </c>
       <c r="M7" s="2">
-        <v>414.52</v>
+        <v>435.71615417497856</v>
       </c>
       <c r="N7" s="2">
-        <v>524.33999999999992</v>
+        <v>490.10396144153225</v>
       </c>
       <c r="O7" s="2">
-        <v>391.33749999999998</v>
+        <v>373.92060338415763</v>
       </c>
       <c r="P7" s="2">
-        <v>338.73249999999996</v>
+        <v>382.99620248538008</v>
       </c>
       <c r="Q7" s="2">
-        <v>639.00749999999994</v>
+        <v>462.54061888454009</v>
       </c>
       <c r="R7" s="2">
-        <v>500.49750000000006</v>
+        <v>506.68411906518418</v>
       </c>
       <c r="S7" s="2">
-        <v>672.27</v>
+        <v>479.29185713671728</v>
       </c>
       <c r="T7" s="2">
-        <v>324.5025</v>
+        <v>446.01477957513686</v>
       </c>
       <c r="U7" s="2">
-        <v>362.32500000000005</v>
+        <v>325.99154147805035</v>
       </c>
       <c r="V7" s="2">
-        <v>502.86750000000001</v>
+        <v>372.08498996868269</v>
       </c>
       <c r="W7" s="2">
-        <v>284.70499999999998</v>
+        <v>309.65984085080703</v>
       </c>
       <c r="X7" s="2">
-        <v>264.48499999999996</v>
+        <v>317.54138389031704</v>
       </c>
       <c r="Y7" s="2">
-        <v>267.42999999999995</v>
+        <v>328.86299615074745</v>
       </c>
       <c r="Z7" s="2">
-        <v>500.51</v>
+        <v>511.03972152016365</v>
       </c>
       <c r="AA7" s="2">
-        <v>411.73750000000007</v>
+        <v>483.00373625072359</v>
       </c>
       <c r="AB7" s="2">
-        <v>525.33000000000004</v>
+        <v>452.01969704999118</v>
       </c>
     </row>
   </sheetData>
@@ -2433,16 +2365,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="5">
-        <v>494.29999999999995</v>
+        <v>949.02999999999952</v>
       </c>
       <c r="C3" s="5">
-        <v>805.39999999999986</v>
+        <v>2006.629999999999</v>
       </c>
       <c r="D3" s="5">
-        <v>1466.4399999999991</v>
+        <v>2898.5800000000036</v>
       </c>
       <c r="E3" s="5">
-        <v>1474.5700000000004</v>
+        <v>3160.8499999999963</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2450,16 +2382,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="5">
-        <v>11.656067026512071</v>
+        <v>10.527127294347583</v>
       </c>
       <c r="C4" s="5">
-        <v>18.992102737513296</v>
+        <v>22.258568688720789</v>
       </c>
       <c r="D4" s="5">
-        <v>34.580058527935172</v>
+        <v>32.152535360157287</v>
       </c>
       <c r="E4" s="5">
-        <v>34.771771708039473</v>
+        <v>35.061768656774319</v>
       </c>
     </row>
   </sheetData>
